--- a/backtest/rotation_strategy/bt_report/rs_m_style_28/single_run/summary.xlsx
+++ b/backtest/rotation_strategy/bt_report/rs_m_style_28/single_run/summary.xlsx
@@ -681,7 +681,7 @@
       </c>
       <c r="B6" s="5" t="inlineStr">
         <is>
-          <t>000300.XSHG</t>
+          <t>399006.XSHE</t>
         </is>
       </c>
       <c r="C6" s="13" t="n"/>
@@ -697,7 +697,7 @@
       </c>
       <c r="B7" s="5" t="inlineStr">
         <is>
-          <t>沪深300</t>
+          <t>创业板指</t>
         </is>
       </c>
       <c r="C7" s="13" t="n"/>
@@ -904,7 +904,7 @@
         </is>
       </c>
       <c r="B22" s="7" t="n">
-        <v>4.249480471042719</v>
+        <v>0.8295594892284177</v>
       </c>
       <c r="C22" s="13" t="n"/>
       <c r="D22" s="13" t="n"/>
@@ -918,7 +918,7 @@
         </is>
       </c>
       <c r="B23" s="7" t="n">
-        <v>0.198655581103252</v>
+        <v>0.06824105718456952</v>
       </c>
       <c r="C23" s="13" t="n"/>
       <c r="D23" s="13" t="n"/>
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="B24" s="7" t="n">
-        <v>0.2510089259888431</v>
+        <v>0.2071696558442667</v>
       </c>
       <c r="C24" s="13" t="n"/>
       <c r="D24" s="13" t="n"/>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="B25" s="7" t="n">
-        <v>0.5902946260516946</v>
+        <v>0.488057626031892</v>
       </c>
       <c r="C25" s="13" t="n"/>
       <c r="D25" s="13" t="n"/>
@@ -960,7 +960,7 @@
         </is>
       </c>
       <c r="B26" s="7" t="n">
-        <v>1.401583792146254</v>
+        <v>1.285874870032365</v>
       </c>
       <c r="C26" s="13" t="n"/>
       <c r="D26" s="13" t="n"/>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B27" s="7" t="n">
-        <v>0.962359232301399</v>
+        <v>0.3958915823603952</v>
       </c>
       <c r="C27" s="13" t="n"/>
       <c r="D27" s="13" t="n"/>
@@ -988,7 +988,7 @@
         </is>
       </c>
       <c r="B28" s="7" t="n">
-        <v>0.2644202970547052</v>
+        <v>0.442458459755091</v>
       </c>
       <c r="C28" s="13" t="n"/>
       <c r="D28" s="13" t="n"/>
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="B29" s="7" t="n">
-        <v>0.2115309078000213</v>
+        <v>0.2379131954721588</v>
       </c>
       <c r="C29" s="13" t="n"/>
       <c r="D29" s="13" t="n"/>
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="B30" s="5" t="n">
-        <v>0.2397705386181202</v>
+        <v>0.1968235361484559</v>
       </c>
       <c r="C30" s="13" t="n"/>
       <c r="D30" s="13" t="n"/>
@@ -1030,7 +1030,7 @@
         </is>
       </c>
       <c r="B31" s="5" t="n">
-        <v>0.7242655771785166</v>
+        <v>0.520100887203701</v>
       </c>
       <c r="C31" s="13" t="n"/>
       <c r="D31" s="13" t="n"/>
@@ -1068,7 +1068,7 @@
         </is>
       </c>
       <c r="B34" s="5" t="n">
-        <v>1.487481002045135</v>
+        <v>1.269525537712451</v>
       </c>
     </row>
     <row r="35" ht="20" customHeight="1">
@@ -1078,7 +1078,7 @@
         </is>
       </c>
       <c r="B35" s="5" t="n">
-        <v>0.02466658503108084</v>
+        <v>0.0305848114791644</v>
       </c>
     </row>
     <row r="36" ht="20" customHeight="1">
@@ -1160,16 +1160,16 @@
         <v>0.1012060000000008</v>
       </c>
       <c r="C2" s="13" t="n">
-        <v>0.1708489381182998</v>
+        <v>-0.4137610571021854</v>
       </c>
       <c r="D2" s="13" t="n">
         <v>0.4073080180091037</v>
       </c>
       <c r="E2" s="13" t="n">
-        <v>0.6555659950080518</v>
+        <v>-3.532563160813606</v>
       </c>
       <c r="F2" s="13" t="n">
-        <v>0.6153846153846154</v>
+        <v>0.2884615384615384</v>
       </c>
     </row>
     <row r="3">
@@ -1180,16 +1180,16 @@
         <v>0.915997551775057</v>
       </c>
       <c r="C3" s="13" t="n">
-        <v>0.2595336438576013</v>
+        <v>0.6461999940715755</v>
       </c>
       <c r="D3" s="13" t="n">
         <v>2.973425316098395</v>
       </c>
       <c r="E3" s="13" t="n">
-        <v>2.984301814955667</v>
+        <v>4.435815144210323</v>
       </c>
       <c r="F3" s="13" t="n">
-        <v>0.6037735849056604</v>
+        <v>0.4528301886792453</v>
       </c>
     </row>
     <row r="4">
@@ -1200,16 +1200,16 @@
         <v>1.111821937259824</v>
       </c>
       <c r="C4" s="13" t="n">
-        <v>0.8395159890818085</v>
+        <v>-0.002570307763093718</v>
       </c>
       <c r="D4" s="13" t="n">
         <v>2.327839757836163</v>
       </c>
       <c r="E4" s="13" t="n">
-        <v>3.6171479137654</v>
+        <v>2.748658334000676</v>
       </c>
       <c r="F4" s="13" t="n">
-        <v>0.6538461538461539</v>
+        <v>0.2884615384615384</v>
       </c>
     </row>
     <row r="5">
@@ -1220,16 +1220,16 @@
         <v>-0.1856336194804465</v>
       </c>
       <c r="C5" s="13" t="n">
-        <v>-0.1066057187041022</v>
+        <v>0.04072756736117785</v>
       </c>
       <c r="D5" s="13" t="n">
         <v>-1.015170131360172</v>
       </c>
       <c r="E5" s="13" t="n">
-        <v>-0.8552863252549274</v>
+        <v>-0.6645441178713959</v>
       </c>
       <c r="F5" s="13" t="n">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="6">
@@ -1240,16 +1240,16 @@
         <v>0.1776756022204628</v>
       </c>
       <c r="C6" s="13" t="n">
-        <v>-0.03468013592287147</v>
+        <v>0.2910761440332424</v>
       </c>
       <c r="D6" s="13" t="n">
         <v>1.589825350177869</v>
       </c>
       <c r="E6" s="13" t="n">
-        <v>-0.009087485167766449</v>
+        <v>1.985236149895329</v>
       </c>
       <c r="F6" s="13" t="n">
-        <v>0.4705882352941176</v>
+        <v>0.5490196078431373</v>
       </c>
     </row>
     <row r="7">
@@ -1260,16 +1260,16 @@
         <v>-0.1147592427355817</v>
       </c>
       <c r="C7" s="13" t="n">
-        <v>0.1576538844676003</v>
+        <v>0.1831526130447888</v>
       </c>
       <c r="D7" s="13" t="n">
         <v>-0.6043884034966679</v>
       </c>
       <c r="E7" s="13" t="n">
-        <v>0.02666204689709637</v>
+        <v>-0.05931963301086367</v>
       </c>
       <c r="F7" s="13" t="n">
-        <v>0.5882352941176471</v>
+        <v>0.5686274509803921</v>
       </c>
     </row>
     <row r="8">
@@ -1280,16 +1280,16 @@
         <v>0.4227258008022879</v>
       </c>
       <c r="C8" s="13" t="n">
-        <v>0.03798464504535547</v>
+        <v>-0.03311754410290178</v>
       </c>
       <c r="D8" s="13" t="n">
         <v>1.829762905561636</v>
       </c>
       <c r="E8" s="13" t="n">
-        <v>0.9940274560201776</v>
+        <v>1.139515778182504</v>
       </c>
       <c r="F8" s="13" t="n">
-        <v>0.5192307692307693</v>
+        <v>0.3846153846153846</v>
       </c>
     </row>
     <row r="9">
@@ -1300,16 +1300,16 @@
         <v>0.6579721723910816</v>
       </c>
       <c r="C9" s="13" t="n">
-        <v>0.2956425436155219</v>
+        <v>-0.02067241898923685</v>
       </c>
       <c r="D9" s="13" t="n">
         <v>2.126901310779956</v>
       </c>
       <c r="E9" s="13" t="n">
-        <v>2.56928744648089</v>
+        <v>1.443309574741375</v>
       </c>
       <c r="F9" s="13" t="n">
-        <v>0.5769230769230769</v>
+        <v>0.3269230769230769</v>
       </c>
     </row>
     <row r="10">
@@ -1320,16 +1320,16 @@
         <v>0.08021873936073722</v>
       </c>
       <c r="C10" s="13" t="n">
-        <v>0.1317632430652311</v>
+        <v>-0.0625515717530597</v>
       </c>
       <c r="D10" s="13" t="n">
         <v>0.4725655724585509</v>
       </c>
       <c r="E10" s="13" t="n">
-        <v>0.7705356168164561</v>
+        <v>0.0432463995984162</v>
       </c>
       <c r="F10" s="13" t="n">
-        <v>0.5769230769230769</v>
+        <v>0.4038461538461539</v>
       </c>
     </row>
     <row r="11">
@@ -1340,16 +1340,16 @@
         <v>0.1742214106230117</v>
       </c>
       <c r="C11" s="13" t="n">
-        <v>0.2734364252159187</v>
+        <v>0.3468781850121358</v>
       </c>
       <c r="D11" s="13" t="n">
         <v>2.621708790028269</v>
       </c>
       <c r="E11" s="13" t="n">
-        <v>3.568660987815198</v>
+        <v>3.869575002170462</v>
       </c>
       <c r="F11" s="13" t="n">
-        <v>0.68</v>
+        <v>0.52</v>
       </c>
     </row>
   </sheetData>
@@ -1941,40 +1941,40 @@
         <v>2013</v>
       </c>
       <c r="B2" s="15" t="n">
-        <v>0.0006268802099527182</v>
+        <v>-0.02076834520177806</v>
       </c>
       <c r="C2" s="15" t="n">
-        <v>0.01729856792117412</v>
+        <v>-0.08801378443705599</v>
       </c>
       <c r="D2" s="15" t="n">
-        <v>0.07621584479594778</v>
+        <v>-4.119671651592327e-07</v>
       </c>
       <c r="E2" s="15" t="n">
-        <v>0.03644593149375175</v>
+        <v>-0.01223291822495165</v>
       </c>
       <c r="F2" s="15" t="n">
-        <v>0.1318037972533135</v>
+        <v>-8.636037361009485e-06</v>
       </c>
       <c r="G2" s="15" t="n">
-        <v>0.1255023172398446</v>
+        <v>0.007084535119706414</v>
       </c>
       <c r="H2" s="15" t="n">
-        <v>0.02616025588806559</v>
+        <v>-0.08698977308812328</v>
       </c>
       <c r="I2" s="15" t="n">
-        <v>-0.07126362590137403</v>
+        <v>-0.06306616189979719</v>
       </c>
       <c r="J2" s="15" t="n">
-        <v>0.0003904897009228137</v>
+        <v>-0.09799068557404023</v>
       </c>
       <c r="K2" s="15" t="n">
-        <v>-0.05020477400682266</v>
+        <v>0.03384889143358905</v>
       </c>
       <c r="L2" s="15" t="n">
-        <v>-0.003367839266567807</v>
+        <v>-0.07549277470033455</v>
       </c>
       <c r="M2" s="15" t="n">
-        <v>-0.1030368203733782</v>
+        <v>-0.1052093539497395</v>
       </c>
     </row>
     <row r="3">
@@ -1982,40 +1982,40 @@
         <v>2014</v>
       </c>
       <c r="B3" s="15" t="n">
-        <v>0.2123849191714966</v>
+        <v>-1.513371046135692e-05</v>
       </c>
       <c r="C3" s="15" t="n">
-        <v>-0.03098100288587968</v>
+        <v>-0.0001589749153250164</v>
       </c>
       <c r="D3" s="15" t="n">
-        <v>0.01142531929910429</v>
+        <v>0.07215059326924611</v>
       </c>
       <c r="E3" s="15" t="n">
-        <v>-0.002554037173892021</v>
+        <v>0.03521909713552174</v>
       </c>
       <c r="F3" s="15" t="n">
-        <v>-0.0194030207740874</v>
+        <v>-0.04923476290953177</v>
       </c>
       <c r="G3" s="15" t="n">
-        <v>0.06205651231229825</v>
+        <v>-6.33371247715786e-06</v>
       </c>
       <c r="H3" s="15" t="n">
-        <v>-0.03065952767762248</v>
+        <v>0.0964291869447842</v>
       </c>
       <c r="I3" s="15" t="n">
-        <v>-0.008044276794054728</v>
+        <v>-0.07006296500374343</v>
       </c>
       <c r="J3" s="15" t="n">
-        <v>0.03188840200841692</v>
+        <v>-9.100419851248986e-06</v>
       </c>
       <c r="K3" s="15" t="n">
-        <v>-0.06079842610026776</v>
+        <v>-0.02089390082251463</v>
       </c>
       <c r="L3" s="15" t="n">
-        <v>0.027017616164424</v>
+        <v>0.1037051700602978</v>
       </c>
       <c r="M3" s="15" t="n">
-        <v>0.06619713456334519</v>
+        <v>0.4160761050192376</v>
       </c>
     </row>
     <row r="4">
@@ -2023,40 +2023,40 @@
         <v>2015</v>
       </c>
       <c r="B4" s="15" t="n">
-        <v>-0.006907708687579839</v>
+        <v>-0.1611017123898741</v>
       </c>
       <c r="C4" s="15" t="n">
-        <v>0.1014795789230964</v>
+        <v>-9.332889056579141e-06</v>
       </c>
       <c r="D4" s="15" t="n">
-        <v>0.0659922394646093</v>
+        <v>-1.128547635587118e-05</v>
       </c>
       <c r="E4" s="15" t="n">
-        <v>-0.04036992071181078</v>
+        <v>-0.08644912512968794</v>
       </c>
       <c r="F4" s="15" t="n">
-        <v>0.1720681461388007</v>
+        <v>-0.03472725656157105</v>
       </c>
       <c r="G4" s="15" t="n">
-        <v>-0.0021448980678197</v>
+        <v>0.1348020791833746</v>
       </c>
       <c r="H4" s="15" t="n">
-        <v>0.1336278546596594</v>
+        <v>0.08807385286485703</v>
       </c>
       <c r="I4" s="15" t="n">
-        <v>0.1488887457395822</v>
+        <v>0.2727985597292526</v>
       </c>
       <c r="J4" s="15" t="n">
-        <v>0.002371559320756278</v>
+        <v>-0.1047175567252276</v>
       </c>
       <c r="K4" s="15" t="n">
-        <v>0.08262290740856026</v>
+        <v>-6.137712172282761e-06</v>
       </c>
       <c r="L4" s="15" t="n">
-        <v>0.07112455697300746</v>
+        <v>-2.815103054998325e-06</v>
       </c>
       <c r="M4" s="15" t="n">
-        <v>-0.07153645153098043</v>
+        <v>-0.04169267838589741</v>
       </c>
     </row>
     <row r="5">
@@ -2064,40 +2064,40 @@
         <v>2016</v>
       </c>
       <c r="B5" s="15" t="n">
-        <v>0.1089536450722142</v>
+        <v>0.173504208816841</v>
       </c>
       <c r="C5" s="15" t="n">
-        <v>0.01771748453231958</v>
+        <v>0.0460455799513102</v>
       </c>
       <c r="D5" s="15" t="n">
-        <v>-0.05880860124381715</v>
+        <v>-0.127131655010166</v>
       </c>
       <c r="E5" s="15" t="n">
-        <v>-0.04122125449195757</v>
+        <v>-0.0174472322943735</v>
       </c>
       <c r="F5" s="15" t="n">
-        <v>-0.001263924073659162</v>
+        <v>-0.0131749607297359</v>
       </c>
       <c r="G5" s="15" t="n">
-        <v>0.01933730133259548</v>
+        <v>-0.01827790028355702</v>
       </c>
       <c r="H5" s="15" t="n">
-        <v>-0.05177000052781855</v>
+        <v>0.01069404089260328</v>
       </c>
       <c r="I5" s="15" t="n">
-        <v>-0.07100296871938094</v>
+        <v>-0.0663945072376344</v>
       </c>
       <c r="J5" s="15" t="n">
-        <v>-0.003705983484850739</v>
+        <v>-0.007463114782828462</v>
       </c>
       <c r="K5" s="15" t="n">
-        <v>-0.03879666839618212</v>
+        <v>-0.01949447260632942</v>
       </c>
       <c r="L5" s="15" t="n">
-        <v>0.01131457841218531</v>
+        <v>0.05998056258225382</v>
       </c>
       <c r="M5" s="15" t="n">
-        <v>0.009997881864618696</v>
+        <v>0.04831243344943359</v>
       </c>
     </row>
     <row r="6">
@@ -2105,40 +2105,40 @@
         <v>2017</v>
       </c>
       <c r="B6" s="15" t="n">
-        <v>-0.0061046779316829</v>
+        <v>0.05519042431187438</v>
       </c>
       <c r="C6" s="15" t="n">
-        <v>0.000810481316167122</v>
+        <v>-0.002111459160000329</v>
       </c>
       <c r="D6" s="15" t="n">
-        <v>-0.01830477455426882</v>
+        <v>-0.007356157674061947</v>
       </c>
       <c r="E6" s="15" t="n">
-        <v>-0.006698847054302681</v>
+        <v>0.01770399720686466</v>
       </c>
       <c r="F6" s="15" t="n">
-        <v>0.02019967921752008</v>
+        <v>0.08512538385063939</v>
       </c>
       <c r="G6" s="15" t="n">
-        <v>-0.002586368142161399</v>
+        <v>0.01391648498488074</v>
       </c>
       <c r="H6" s="15" t="n">
-        <v>-0.01932902864005315</v>
+        <v>0.04238150822646469</v>
       </c>
       <c r="I6" s="15" t="n">
-        <v>-0.01231745665134132</v>
+        <v>-0.0526214963545224</v>
       </c>
       <c r="J6" s="15" t="n">
-        <v>0.0004176232498318555</v>
+        <v>-0.005441228346092952</v>
       </c>
       <c r="K6" s="15" t="n">
-        <v>0.00874814529208523</v>
+        <v>0.04966556118249055</v>
       </c>
       <c r="L6" s="15" t="n">
-        <v>0.01465276573360663</v>
+        <v>0.06927521510594459</v>
       </c>
       <c r="M6" s="15" t="n">
-        <v>-0.01386033692247768</v>
+        <v>0.0007389740527736777</v>
       </c>
     </row>
     <row r="7">
@@ -2146,40 +2146,40 @@
         <v>2018</v>
       </c>
       <c r="B7" s="15" t="n">
-        <v>0.02495877838835847</v>
+        <v>0.09418148651160507</v>
       </c>
       <c r="C7" s="15" t="n">
-        <v>-0.005069158824859699</v>
+        <v>-0.07730941999429863</v>
       </c>
       <c r="D7" s="15" t="n">
-        <v>0.09889689433488424</v>
+        <v>-0.01862166697178069</v>
       </c>
       <c r="E7" s="15" t="n">
-        <v>-0.008101756085296841</v>
+        <v>0.004724656854537601</v>
       </c>
       <c r="F7" s="15" t="n">
-        <v>-0.04950526210130113</v>
+        <v>-0.004504800011046473</v>
       </c>
       <c r="G7" s="15" t="n">
-        <v>0.08645860437504749</v>
+        <v>0.08280174974458188</v>
       </c>
       <c r="H7" s="15" t="n">
-        <v>-0.03444831110683277</v>
+        <v>-0.005126506903233019</v>
       </c>
       <c r="I7" s="15" t="n">
-        <v>-0.01506979125631192</v>
+        <v>0.01320474946932482</v>
       </c>
       <c r="J7" s="15" t="n">
-        <v>0.01085328473250646</v>
+        <v>0.05965049039625048</v>
       </c>
       <c r="K7" s="15" t="n">
-        <v>-0.003033964600720029</v>
+        <v>0.009896516359752638</v>
       </c>
       <c r="L7" s="15" t="n">
-        <v>-0.002192935110410965</v>
+        <v>-0.03835223875063687</v>
       </c>
       <c r="M7" s="15" t="n">
-        <v>0.05462101855506485</v>
+        <v>0.0629260577650721</v>
       </c>
     </row>
     <row r="8">
@@ -2187,40 +2187,40 @@
         <v>2019</v>
       </c>
       <c r="B8" s="15" t="n">
-        <v>-0.04642199452720186</v>
+        <v>0.03166436975021725</v>
       </c>
       <c r="C8" s="15" t="n">
-        <v>0.007331233591010955</v>
+        <v>-0.07831585253720563</v>
       </c>
       <c r="D8" s="15" t="n">
-        <v>0.04554447791206617</v>
+        <v>-2.811018289139433e-06</v>
       </c>
       <c r="E8" s="15" t="n">
-        <v>0.003260918505336052</v>
+        <v>0.05508736345254617</v>
       </c>
       <c r="F8" s="15" t="n">
-        <v>0.02217019764040429</v>
+        <v>0.03323298185749723</v>
       </c>
       <c r="G8" s="15" t="n">
-        <v>-0.01882044666761884</v>
+        <v>0.01317236158353929</v>
       </c>
       <c r="H8" s="15" t="n">
-        <v>0.006889759732040757</v>
+        <v>-0.02954791837865189</v>
       </c>
       <c r="I8" s="15" t="n">
-        <v>0.01091684063649634</v>
+        <v>-0.02408717506681701</v>
       </c>
       <c r="J8" s="15" t="n">
-        <v>0.008648163464861636</v>
+        <v>0.001678999895159405</v>
       </c>
       <c r="K8" s="15" t="n">
-        <v>-0.007843281119785162</v>
+        <v>-0.01687375626633758</v>
       </c>
       <c r="L8" s="15" t="n">
-        <v>0.03280896648729326</v>
+        <v>0.02117622194646507</v>
       </c>
       <c r="M8" s="15" t="n">
-        <v>-0.0236692739203086</v>
+        <v>-0.033369128094623</v>
       </c>
     </row>
     <row r="9">
@@ -2228,40 +2228,40 @@
         <v>2020</v>
       </c>
       <c r="B9" s="15" t="n">
-        <v>0.09734455025245814</v>
+        <v>-1.671744455311597e-06</v>
       </c>
       <c r="C9" s="15" t="n">
-        <v>0.0938467094729285</v>
+        <v>-1.737213682906358e-06</v>
       </c>
       <c r="D9" s="15" t="n">
-        <v>0.04226290438577651</v>
+        <v>0.07537043712477431</v>
       </c>
       <c r="E9" s="15" t="n">
-        <v>-0.01892717875416483</v>
+        <v>-0.06067557306691573</v>
       </c>
       <c r="F9" s="15" t="n">
-        <v>0.02071169720269661</v>
+        <v>-1.900609383209684e-07</v>
       </c>
       <c r="G9" s="15" t="n">
-        <v>0.08535390762436212</v>
+        <v>-2.299688244500331e-06</v>
       </c>
       <c r="H9" s="15" t="n">
-        <v>0.01609005205602765</v>
+        <v>-1.961363955360618e-06</v>
       </c>
       <c r="I9" s="15" t="n">
-        <v>-0.02484757562344286</v>
+        <v>0.02236337285170298</v>
       </c>
       <c r="J9" s="15" t="n">
-        <v>0.01802656089393628</v>
+        <v>0.02405560317849798</v>
       </c>
       <c r="K9" s="15" t="n">
-        <v>-0.08096192640952038</v>
+        <v>-0.09001478669565954</v>
       </c>
       <c r="L9" s="15" t="n">
-        <v>0.005759288657380512</v>
+        <v>0.06970972549490884</v>
       </c>
       <c r="M9" s="15" t="n">
-        <v>0.02197756876419965</v>
+        <v>-0.04867570030091872</v>
       </c>
     </row>
     <row r="10">
@@ -2269,40 +2269,40 @@
         <v>2021</v>
       </c>
       <c r="B10" s="15" t="n">
-        <v>0.01789826999108768</v>
+        <v>-0.009905558444716855</v>
       </c>
       <c r="C10" s="15" t="n">
-        <v>-0.0350341778248443</v>
+        <v>0.03185279893105197</v>
       </c>
       <c r="D10" s="15" t="n">
-        <v>0.05021732078467922</v>
+        <v>0.04291606568309714</v>
       </c>
       <c r="E10" s="15" t="n">
-        <v>0.06074066840073278</v>
+        <v>-0.04056196240571275</v>
       </c>
       <c r="F10" s="15" t="n">
-        <v>0.0292981232023668</v>
+        <v>-1.620778170785542e-06</v>
       </c>
       <c r="G10" s="15" t="n">
-        <v>0.07316313140397446</v>
+        <v>-1.139685895767961e-06</v>
       </c>
       <c r="H10" s="15" t="n">
-        <v>0.01003151156445492</v>
+        <v>-0.06334748820364788</v>
       </c>
       <c r="I10" s="15" t="n">
-        <v>-0.03588616168278014</v>
+        <v>0.02920977855912676</v>
       </c>
       <c r="J10" s="15" t="n">
-        <v>-0.04252458841389972</v>
+        <v>-0.04254882583754382</v>
       </c>
       <c r="K10" s="15" t="n">
-        <v>0.002187684511666621</v>
+        <v>-0.02245765349256423</v>
       </c>
       <c r="L10" s="15" t="n">
-        <v>0.0595930944295151</v>
+        <v>-3.489917725918446e-07</v>
       </c>
       <c r="M10" s="15" t="n">
-        <v>-0.05427492250809463</v>
+        <v>0.01637378509039844</v>
       </c>
     </row>
     <row r="11">
@@ -2310,25 +2310,25 @@
         <v>2022</v>
       </c>
       <c r="B11" s="15" t="n">
-        <v>0.05636630133408826</v>
+        <v>0.1111204860149024</v>
       </c>
       <c r="C11" s="15" t="n">
-        <v>-0.005404061630617019</v>
+        <v>0.004280811429914433</v>
       </c>
       <c r="D11" s="15" t="n">
-        <v>0.07556156100182077</v>
+        <v>0.07009750317718355</v>
       </c>
       <c r="E11" s="15" t="n">
-        <v>0.04575748181533279</v>
+        <v>0.1323444016389579</v>
       </c>
       <c r="F11" s="15" t="n">
-        <v>0.01606261494537531</v>
+        <v>-0.003881523171332057</v>
       </c>
       <c r="G11" s="15" t="n">
-        <v>0.06707355422743588</v>
+        <v>-2.115834817018047e-06</v>
       </c>
       <c r="H11" s="15" t="n">
-        <v>-0.006117677416943246</v>
+        <v>7.883500607874794e-08</v>
       </c>
       <c r="I11" s="15" t="n">
         <v/>

--- a/backtest/rotation_strategy/bt_report/rs_m_style_28/single_run/summary.xlsx
+++ b/backtest/rotation_strategy/bt_report/rs_m_style_28/single_run/summary.xlsx
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B8" s="7" t="n">
-        <v>113184742.8275636</v>
+        <v>5883090.757432673</v>
       </c>
       <c r="C8" s="13" t="n"/>
       <c r="D8" s="13" t="n"/>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="B9" s="7" t="n">
-        <v>1391.87256360054</v>
+        <v>-718.6875673274044</v>
       </c>
       <c r="C9" s="13" t="n"/>
       <c r="D9" s="13" t="n"/>
@@ -740,7 +740,7 @@
         </is>
       </c>
       <c r="B10" s="7" t="n">
-        <v>10.31847428275636</v>
+        <v>-0.4116909242567327</v>
       </c>
       <c r="C10" s="13" t="n"/>
       <c r="D10" s="13" t="n"/>
@@ -754,7 +754,7 @@
         </is>
       </c>
       <c r="B11" s="7" t="n">
-        <v>0.3036412279659162</v>
+        <v>-0.05632497274844084</v>
       </c>
       <c r="C11" s="13" t="n"/>
       <c r="D11" s="13" t="n"/>
@@ -768,7 +768,7 @@
         </is>
       </c>
       <c r="B12" s="7" t="n">
-        <v>11.31847428275636</v>
+        <v>0.5883090757432673</v>
       </c>
       <c r="C12" s="13" t="n"/>
       <c r="D12" s="13" t="n"/>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="B14" s="7" t="n">
-        <v>203.1966034051114</v>
+        <v>205.0206402744798</v>
       </c>
       <c r="C14" s="13" t="n"/>
       <c r="D14" s="13" t="n"/>
@@ -810,7 +810,7 @@
         </is>
       </c>
       <c r="B15" s="7" t="n">
-        <v>0.7585867974611413</v>
+        <v>0.3690448443334061</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1">
@@ -820,7 +820,7 @@
         </is>
       </c>
       <c r="B16" s="5" t="n">
-        <v>0.2329057788204705</v>
+        <v>0.244368536467229</v>
       </c>
       <c r="C16" s="13" t="n"/>
       <c r="D16" s="13" t="n"/>
@@ -834,7 +834,7 @@
         </is>
       </c>
       <c r="B17" s="5" t="n">
-        <v>1.105305468391919</v>
+        <v>-0.2579735780661687</v>
       </c>
       <c r="C17" s="13" t="n"/>
       <c r="D17" s="13" t="n"/>
@@ -848,7 +848,7 @@
         </is>
       </c>
       <c r="B18" s="5" t="n">
-        <v>0.1643896340723893</v>
+        <v>0.1753816463294466</v>
       </c>
       <c r="C18" s="13" t="n"/>
       <c r="D18" s="13" t="n"/>
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="B19" s="5" t="n">
-        <v>1.565987006437304</v>
+        <v>-0.3594482492245801</v>
       </c>
       <c r="C19" s="13" t="n"/>
       <c r="D19" s="13" t="n"/>
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="B20" s="5" t="n">
-        <v>0.2796818589783282</v>
+        <v>0.7806130471127317</v>
       </c>
       <c r="C20" s="13" t="n"/>
       <c r="D20" s="13" t="n"/>
@@ -890,7 +890,7 @@
         </is>
       </c>
       <c r="B21" s="5" t="n">
-        <v>0.0233815150550144</v>
+        <v>0.02595791840425363</v>
       </c>
       <c r="C21" s="13" t="n"/>
       <c r="D21" s="13" t="n"/>
@@ -904,7 +904,7 @@
         </is>
       </c>
       <c r="B22" s="7" t="n">
-        <v>0.8295594892284177</v>
+        <v>-0.9051519664944261</v>
       </c>
       <c r="C22" s="13" t="n"/>
       <c r="D22" s="13" t="n"/>
@@ -918,7 +918,7 @@
         </is>
       </c>
       <c r="B23" s="7" t="n">
-        <v>0.06824105718456952</v>
+        <v>-0.2269465653542007</v>
       </c>
       <c r="C23" s="13" t="n"/>
       <c r="D23" s="13" t="n"/>
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="B24" s="7" t="n">
-        <v>0.2071696558442667</v>
+        <v>-0.1527303182788613</v>
       </c>
       <c r="C24" s="13" t="n"/>
       <c r="D24" s="13" t="n"/>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="B25" s="7" t="n">
-        <v>0.488057626031892</v>
+        <v>0.487526118146893</v>
       </c>
       <c r="C25" s="13" t="n"/>
       <c r="D25" s="13" t="n"/>
@@ -960,7 +960,7 @@
         </is>
       </c>
       <c r="B26" s="7" t="n">
-        <v>1.285874870032365</v>
+        <v>-0.7061472545087768</v>
       </c>
       <c r="C26" s="13" t="n"/>
       <c r="D26" s="13" t="n"/>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B27" s="7" t="n">
-        <v>0.3958915823603952</v>
+        <v>-0.9074763740388506</v>
       </c>
       <c r="C27" s="13" t="n"/>
       <c r="D27" s="13" t="n"/>
@@ -988,7 +988,7 @@
         </is>
       </c>
       <c r="B28" s="7" t="n">
-        <v>0.442458459755091</v>
+        <v>0.9274025278298395</v>
       </c>
       <c r="C28" s="13" t="n"/>
       <c r="D28" s="13" t="n"/>
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="B29" s="7" t="n">
-        <v>0.2379131954721588</v>
+        <v>0.2493561614641114</v>
       </c>
       <c r="C29" s="13" t="n"/>
       <c r="D29" s="13" t="n"/>
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="B30" s="5" t="n">
-        <v>0.1968235361484559</v>
+        <v>-0.1532168393948898</v>
       </c>
       <c r="C30" s="13" t="n"/>
       <c r="D30" s="13" t="n"/>
@@ -1030,7 +1030,7 @@
         </is>
       </c>
       <c r="B31" s="5" t="n">
-        <v>0.520100887203701</v>
+        <v>0.5202877683200188</v>
       </c>
       <c r="C31" s="13" t="n"/>
       <c r="D31" s="13" t="n"/>
@@ -1044,7 +1044,7 @@
         </is>
       </c>
       <c r="B32" s="5" t="n">
-        <v>1.094821640203652</v>
+        <v>-0.239802173006628</v>
       </c>
       <c r="C32" s="13" t="n"/>
       <c r="D32" s="13" t="n"/>
@@ -1058,7 +1058,7 @@
         </is>
       </c>
       <c r="B33" s="5" t="n">
-        <v>1.590756695079199</v>
+        <v>-0.3437089119580535</v>
       </c>
     </row>
     <row r="34" ht="20" customHeight="1">
@@ -1068,7 +1068,7 @@
         </is>
       </c>
       <c r="B34" s="5" t="n">
-        <v>1.269525537712451</v>
+        <v>-0.6888431542187478</v>
       </c>
     </row>
     <row r="35" ht="20" customHeight="1">
@@ -1078,7 +1078,7 @@
         </is>
       </c>
       <c r="B35" s="5" t="n">
-        <v>0.0305848114791644</v>
+        <v>0.03376157413194376</v>
       </c>
     </row>
     <row r="36" ht="20" customHeight="1">
@@ -1088,7 +1088,7 @@
         </is>
       </c>
       <c r="B36" s="16" t="n">
-        <v>0.2526305067396488</v>
+        <v>0.7725643304250135</v>
       </c>
     </row>
   </sheetData>
@@ -1157,19 +1157,19 @@
         <v>2013</v>
       </c>
       <c r="B2" s="13" t="n">
-        <v>0.1012060000000008</v>
+        <v>-0.2721940000000009</v>
       </c>
       <c r="C2" s="13" t="n">
-        <v>-0.4137610571021854</v>
+        <v>-0.6139129038818755</v>
       </c>
       <c r="D2" s="13" t="n">
-        <v>0.4073080180091037</v>
+        <v>-1.140604301419033</v>
       </c>
       <c r="E2" s="13" t="n">
-        <v>-3.532563160813606</v>
+        <v>-5.102023721756177</v>
       </c>
       <c r="F2" s="13" t="n">
-        <v>0.2884615384615384</v>
+        <v>0.4615384615384616</v>
       </c>
     </row>
     <row r="3">
@@ -1177,19 +1177,19 @@
         <v>2014</v>
       </c>
       <c r="B3" s="13" t="n">
-        <v>0.915997551775057</v>
+        <v>0.6302311330217122</v>
       </c>
       <c r="C3" s="13" t="n">
-        <v>0.6461999940715755</v>
+        <v>0.3986480142632822</v>
       </c>
       <c r="D3" s="13" t="n">
-        <v>2.973425316098395</v>
+        <v>2.228134111156396</v>
       </c>
       <c r="E3" s="13" t="n">
-        <v>4.435815144210323</v>
+        <v>2.844663935413519</v>
       </c>
       <c r="F3" s="13" t="n">
-        <v>0.4528301886792453</v>
+        <v>0.6037735849056604</v>
       </c>
     </row>
     <row r="4">
@@ -1197,19 +1197,19 @@
         <v>2015</v>
       </c>
       <c r="B4" s="13" t="n">
-        <v>1.111821937259824</v>
+        <v>0.5305151657154035</v>
       </c>
       <c r="C4" s="13" t="n">
-        <v>-0.002570307763093718</v>
+        <v>-0.276275139223725</v>
       </c>
       <c r="D4" s="13" t="n">
-        <v>2.327839757836163</v>
+        <v>1.362305601094252</v>
       </c>
       <c r="E4" s="13" t="n">
-        <v>2.748658334000676</v>
+        <v>0.5232798549325148</v>
       </c>
       <c r="F4" s="13" t="n">
-        <v>0.2884615384615384</v>
+        <v>0.5576923076923077</v>
       </c>
     </row>
     <row r="5">
@@ -1217,19 +1217,19 @@
         <v>2016</v>
       </c>
       <c r="B5" s="13" t="n">
-        <v>-0.1856336194804465</v>
+        <v>-0.4052123854039547</v>
       </c>
       <c r="C5" s="13" t="n">
-        <v>0.04072756736117785</v>
+        <v>-0.2394462679848458</v>
       </c>
       <c r="D5" s="13" t="n">
-        <v>-1.015170131360172</v>
+        <v>-2.462312058806178</v>
       </c>
       <c r="E5" s="13" t="n">
-        <v>-0.6645441178713959</v>
+        <v>-1.809163984991723</v>
       </c>
       <c r="F5" s="13" t="n">
-        <v>0.54</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="6">
@@ -1237,19 +1237,19 @@
         <v>2017</v>
       </c>
       <c r="B6" s="13" t="n">
-        <v>0.1776756022204628</v>
+        <v>-0.1894230261799599</v>
       </c>
       <c r="C6" s="13" t="n">
-        <v>0.2910761440332424</v>
+        <v>-0.1123571079761262</v>
       </c>
       <c r="D6" s="13" t="n">
-        <v>1.589825350177869</v>
+        <v>-1.571315249757053</v>
       </c>
       <c r="E6" s="13" t="n">
-        <v>1.985236149895329</v>
+        <v>-1.365351119870968</v>
       </c>
       <c r="F6" s="13" t="n">
-        <v>0.5490196078431373</v>
+        <v>0.4901960784313725</v>
       </c>
     </row>
     <row r="7">
@@ -1257,19 +1257,19 @@
         <v>2018</v>
       </c>
       <c r="B7" s="13" t="n">
-        <v>-0.1147592427355817</v>
+        <v>-0.3902433452693013</v>
       </c>
       <c r="C7" s="13" t="n">
-        <v>0.1831526130447888</v>
+        <v>-0.1836744340851251</v>
       </c>
       <c r="D7" s="13" t="n">
-        <v>-0.6043884034966679</v>
+        <v>-2.527774526824052</v>
       </c>
       <c r="E7" s="13" t="n">
-        <v>-0.05931963301086367</v>
+        <v>-1.766826540304489</v>
       </c>
       <c r="F7" s="13" t="n">
-        <v>0.5686274509803921</v>
+        <v>0.4117647058823529</v>
       </c>
     </row>
     <row r="8">
@@ -1277,19 +1277,19 @@
         <v>2019</v>
       </c>
       <c r="B8" s="13" t="n">
-        <v>0.4227258008022879</v>
+        <v>-0.02025306971124501</v>
       </c>
       <c r="C8" s="13" t="n">
-        <v>-0.03311754410290178</v>
+        <v>-0.3336371226263184</v>
       </c>
       <c r="D8" s="13" t="n">
-        <v>1.829762905561636</v>
+        <v>0.0178394052223151</v>
       </c>
       <c r="E8" s="13" t="n">
-        <v>1.139515778182504</v>
+        <v>-2.315579449627135</v>
       </c>
       <c r="F8" s="13" t="n">
-        <v>0.3846153846153846</v>
+        <v>0.4038461538461539</v>
       </c>
     </row>
     <row r="9">
@@ -1297,19 +1297,19 @@
         <v>2020</v>
       </c>
       <c r="B9" s="13" t="n">
-        <v>0.6579721723910816</v>
+        <v>0.3014800213370868</v>
       </c>
       <c r="C9" s="13" t="n">
-        <v>-0.02067241898923685</v>
+        <v>-0.2323634237040063</v>
       </c>
       <c r="D9" s="13" t="n">
-        <v>2.126901310779956</v>
+        <v>1.148932815491515</v>
       </c>
       <c r="E9" s="13" t="n">
-        <v>1.443309574741375</v>
+        <v>-1.106114415786744</v>
       </c>
       <c r="F9" s="13" t="n">
-        <v>0.3269230769230769</v>
+        <v>0.5384615384615384</v>
       </c>
     </row>
     <row r="10">
@@ -1317,19 +1317,19 @@
         <v>2021</v>
       </c>
       <c r="B10" s="13" t="n">
-        <v>0.08021873936073722</v>
+        <v>-0.2181640828714423</v>
       </c>
       <c r="C10" s="13" t="n">
-        <v>-0.0625515717530597</v>
+        <v>-0.3215409474370756</v>
       </c>
       <c r="D10" s="13" t="n">
-        <v>0.4725655724585509</v>
+        <v>-0.9827117939158591</v>
       </c>
       <c r="E10" s="13" t="n">
-        <v>0.0432463995984162</v>
+        <v>-1.944708210867745</v>
       </c>
       <c r="F10" s="13" t="n">
-        <v>0.4038461538461539</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="11">
@@ -1337,19 +1337,19 @@
         <v>2022</v>
       </c>
       <c r="B11" s="13" t="n">
-        <v>0.1742214106230117</v>
+        <v>0.1054097168593541</v>
       </c>
       <c r="C11" s="13" t="n">
-        <v>0.3468781850121358</v>
+        <v>0.2689349655054246</v>
       </c>
       <c r="D11" s="13" t="n">
-        <v>2.621708790028269</v>
+        <v>1.595617634235845</v>
       </c>
       <c r="E11" s="13" t="n">
-        <v>3.869575002170462</v>
+        <v>2.408458001957063</v>
       </c>
       <c r="F11" s="13" t="n">
-        <v>0.52</v>
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
@@ -1444,40 +1444,40 @@
         <v>2013</v>
       </c>
       <c r="B2" s="15" t="n">
-        <v>0.06529399999999996</v>
+        <v>0.0129589999999995</v>
       </c>
       <c r="C2" s="15" t="n">
-        <v>0.01359061442193421</v>
+        <v>-0.02671677728318722</v>
       </c>
       <c r="D2" s="15" t="n">
-        <v>0.006224462201280145</v>
+        <v>0.006224794501651587</v>
       </c>
       <c r="E2" s="15" t="n">
-        <v>0.01672353158280826</v>
+        <v>-0.04310239679526795</v>
       </c>
       <c r="F2" s="15" t="n">
-        <v>0.2064729243217169</v>
+        <v>0.2064935940518755</v>
       </c>
       <c r="G2" s="15" t="n">
-        <v>-0.0444428270653221</v>
+        <v>-0.05400190169677099</v>
       </c>
       <c r="H2" s="15" t="n">
-        <v>0.02648496484140428</v>
+        <v>0.01595466313472294</v>
       </c>
       <c r="I2" s="15" t="n">
-        <v>-0.01998249752915326</v>
+        <v>-0.05873460454915902</v>
       </c>
       <c r="J2" s="15" t="n">
-        <v>0.04362113834591863</v>
+        <v>-0.03732723341826871</v>
       </c>
       <c r="K2" s="15" t="n">
-        <v>-0.06511115133365142</v>
+        <v>-0.07446516263186709</v>
       </c>
       <c r="L2" s="15" t="n">
-        <v>0.02686103146360841</v>
+        <v>-0.0431909126952319</v>
       </c>
       <c r="M2" s="15" t="n">
-        <v>-0.14204687552346</v>
+        <v>-0.1760030704331552</v>
       </c>
     </row>
     <row r="3">
@@ -1485,40 +1485,40 @@
         <v>2014</v>
       </c>
       <c r="B3" s="15" t="n">
-        <v>0.1468154005699207</v>
+        <v>0.1469855978104055</v>
       </c>
       <c r="C3" s="15" t="n">
-        <v>-0.0409817243126821</v>
+        <v>-0.05058320545578932</v>
       </c>
       <c r="D3" s="15" t="n">
-        <v>-0.0005705439157805969</v>
+        <v>-0.02059410238001802</v>
       </c>
       <c r="E3" s="15" t="n">
-        <v>0.003198852642936068</v>
+        <v>-0.00684972978543863</v>
       </c>
       <c r="F3" s="15" t="n">
-        <v>-0.01926779576152982</v>
+        <v>-0.03906900604214714</v>
       </c>
       <c r="G3" s="15" t="n">
-        <v>0.065680081349625</v>
+        <v>0.06569663295981787</v>
       </c>
       <c r="H3" s="15" t="n">
-        <v>0.05219174110097691</v>
+        <v>0.0312324644348656</v>
       </c>
       <c r="I3" s="15" t="n">
-        <v>-0.01327950539402656</v>
+        <v>-0.03307604247018858</v>
       </c>
       <c r="J3" s="15" t="n">
-        <v>0.08170863965914688</v>
+        <v>0.08172932789292631</v>
       </c>
       <c r="K3" s="15" t="n">
-        <v>-0.03785953083396754</v>
+        <v>-0.0760017521340921</v>
       </c>
       <c r="L3" s="15" t="n">
-        <v>0.1495456249170524</v>
+        <v>0.126593926145282</v>
       </c>
       <c r="M3" s="15" t="n">
-        <v>0.3384250680818643</v>
+        <v>0.3385197327229383</v>
       </c>
     </row>
     <row r="4">
@@ -1526,40 +1526,40 @@
         <v>2015</v>
       </c>
       <c r="B4" s="15" t="n">
-        <v>-0.03606650147778967</v>
+        <v>-0.05523846768456975</v>
       </c>
       <c r="C4" s="15" t="n">
-        <v>0.1472388535611231</v>
+        <v>0.1472703559117607</v>
       </c>
       <c r="D4" s="15" t="n">
-        <v>0.2111477169136675</v>
+        <v>0.2111870983293613</v>
       </c>
       <c r="E4" s="15" t="n">
-        <v>0.1249740351055988</v>
+        <v>0.03841736382668826</v>
       </c>
       <c r="F4" s="15" t="n">
-        <v>0.1973747907819168</v>
+        <v>0.1503645510362179</v>
       </c>
       <c r="G4" s="15" t="n">
-        <v>-0.06446507133844581</v>
+        <v>-0.07382412549397255</v>
       </c>
       <c r="H4" s="15" t="n">
         <v>0</v>
       </c>
       <c r="I4" s="15" t="n">
-        <v>0.04033436089478171</v>
+        <v>-0.0009795069505531551</v>
       </c>
       <c r="J4" s="15" t="n">
-        <v>-0.03817972263159874</v>
+        <v>-0.06709811875736216</v>
       </c>
       <c r="K4" s="15" t="n">
-        <v>0.1899434552282093</v>
+        <v>0.1899614596758623</v>
       </c>
       <c r="L4" s="15" t="n">
-        <v>0.07840036224620928</v>
+        <v>0.07840429801241</v>
       </c>
       <c r="M4" s="15" t="n">
-        <v>-0.02556376573378571</v>
+        <v>-0.118925444044218</v>
       </c>
     </row>
     <row r="5">
@@ -1567,40 +1567,40 @@
         <v>2016</v>
       </c>
       <c r="B5" s="15" t="n">
-        <v>-0.1096897267575604</v>
+        <v>-0.119487715480213</v>
       </c>
       <c r="C5" s="15" t="n">
-        <v>0.0005046634736578515</v>
+        <v>-0.0194488796162009</v>
       </c>
       <c r="D5" s="15" t="n">
-        <v>0.05440460851367601</v>
+        <v>0.02269649835476684</v>
       </c>
       <c r="E5" s="15" t="n">
-        <v>-0.06071732553010389</v>
+        <v>-0.08873190773882278</v>
       </c>
       <c r="F5" s="15" t="n">
-        <v>0.005592449036286418</v>
+        <v>-0.01446237298714526</v>
       </c>
       <c r="G5" s="15" t="n">
-        <v>0.01279137749540271</v>
+        <v>0.002549930939370393</v>
       </c>
       <c r="H5" s="15" t="n">
-        <v>-0.03705018333253807</v>
+        <v>-0.05631320949968499</v>
       </c>
       <c r="I5" s="15" t="n">
-        <v>-0.03370042710155896</v>
+        <v>-0.09054903402864467</v>
       </c>
       <c r="J5" s="15" t="n">
-        <v>-0.02561005793610904</v>
+        <v>-0.07346297070488117</v>
       </c>
       <c r="K5" s="15" t="n">
-        <v>-0.01378805131060468</v>
+        <v>-0.06247441251125863</v>
       </c>
       <c r="L5" s="15" t="n">
-        <v>0.07239425760331186</v>
+        <v>0.07240917959676674</v>
       </c>
       <c r="M5" s="15" t="n">
-        <v>-0.05476291139065737</v>
+        <v>-0.06422701116064877</v>
       </c>
     </row>
     <row r="6">
@@ -1608,40 +1608,40 @@
         <v>2017</v>
       </c>
       <c r="B6" s="15" t="n">
-        <v>0.01758964100056937</v>
+        <v>0.007375236204762103</v>
       </c>
       <c r="C6" s="15" t="n">
-        <v>0.01998895580942617</v>
+        <v>-0.0003437288328754784</v>
       </c>
       <c r="D6" s="15" t="n">
-        <v>-0.01751796947996198</v>
+        <v>-0.0273487096083177</v>
       </c>
       <c r="E6" s="15" t="n">
-        <v>-0.01113459288106</v>
+        <v>-0.02109181375987057</v>
       </c>
       <c r="F6" s="15" t="n">
-        <v>0.03622178209812388</v>
+        <v>0.01548909265067122</v>
       </c>
       <c r="G6" s="15" t="n">
-        <v>0.04699405819221192</v>
+        <v>0.02616973146595947</v>
       </c>
       <c r="H6" s="15" t="n">
-        <v>-6.876938074795724e-05</v>
+        <v>-0.09632550187871514</v>
       </c>
       <c r="I6" s="15" t="n">
-        <v>0.01012264212497382</v>
+        <v>-0.009940107111985563</v>
       </c>
       <c r="J6" s="15" t="n">
-        <v>0.004117017262392553</v>
+        <v>-0.03570722088101397</v>
       </c>
       <c r="K6" s="15" t="n">
-        <v>0.05345800650587473</v>
+        <v>-0.008431159848346526</v>
       </c>
       <c r="L6" s="15" t="n">
-        <v>0.01445358180240719</v>
+        <v>0.01445592599813716</v>
       </c>
       <c r="M6" s="15" t="n">
-        <v>-0.006836335138692751</v>
+        <v>-0.06519668661898892</v>
       </c>
     </row>
     <row r="7">
@@ -1649,40 +1649,40 @@
         <v>2018</v>
       </c>
       <c r="B7" s="15" t="n">
-        <v>0.08703706173804937</v>
+        <v>0.04417793159376604</v>
       </c>
       <c r="C7" s="15" t="n">
-        <v>-0.0608492472015062</v>
+        <v>-0.07026930056673553</v>
       </c>
       <c r="D7" s="15" t="n">
-        <v>0.06436244758293563</v>
+        <v>0.05366941822049487</v>
       </c>
       <c r="E7" s="15" t="n">
-        <v>-0.04243856971861504</v>
+        <v>-0.07118004377149501</v>
       </c>
       <c r="F7" s="15" t="n">
-        <v>-0.03745849109435051</v>
+        <v>-0.1300747522883723</v>
       </c>
       <c r="G7" s="15" t="n">
-        <v>0.006344248375267592</v>
+        <v>-0.0136204837925088</v>
       </c>
       <c r="H7" s="15" t="n">
-        <v>-0.02971023006157036</v>
+        <v>-0.05882089217664177</v>
       </c>
       <c r="I7" s="15" t="n">
-        <v>-0.06265126320479641</v>
+        <v>-0.07203442814271444</v>
       </c>
       <c r="J7" s="15" t="n">
-        <v>0.04305189785650665</v>
+        <v>-0.007730375289748515</v>
       </c>
       <c r="K7" s="15" t="n">
-        <v>-0.08011655987803623</v>
+        <v>-0.1075051005066556</v>
       </c>
       <c r="L7" s="15" t="n">
-        <v>0.004796383196615128</v>
+        <v>-0.005013884184346895</v>
       </c>
       <c r="M7" s="15" t="n">
-        <v>0.001705554690553557</v>
+        <v>-0.0281340399308937</v>
       </c>
     </row>
     <row r="8">
@@ -1690,40 +1690,40 @@
         <v>2019</v>
       </c>
       <c r="B8" s="15" t="n">
-        <v>0.01582452731682493</v>
+        <v>0.005449147224381612</v>
       </c>
       <c r="C8" s="15" t="n">
-        <v>0.1550712659662723</v>
+        <v>0.1320288251228692</v>
       </c>
       <c r="D8" s="15" t="n">
-        <v>0.1027966784824541</v>
+        <v>0.1028075066529957</v>
       </c>
       <c r="E8" s="15" t="n">
-        <v>0.01351364878731753</v>
+        <v>-0.006688663744667145</v>
       </c>
       <c r="F8" s="15" t="n">
-        <v>-0.04758153693334932</v>
+        <v>-0.05713882215781985</v>
       </c>
       <c r="G8" s="15" t="n">
-        <v>0.03536160749432526</v>
+        <v>0.004539696450623465</v>
       </c>
       <c r="H8" s="15" t="n">
-        <v>0.009320025493882778</v>
+        <v>-0.01084825450807658</v>
       </c>
       <c r="I8" s="15" t="n">
-        <v>0.00180122561920415</v>
+        <v>-0.03734214261087099</v>
       </c>
       <c r="J8" s="15" t="n">
-        <v>0.01206009813119735</v>
+        <v>-0.008269212509099289</v>
       </c>
       <c r="K8" s="15" t="n">
-        <v>0.01160357948984281</v>
+        <v>-0.0668783122107719</v>
       </c>
       <c r="L8" s="15" t="n">
-        <v>0.01735391283966847</v>
+        <v>-0.08955033122119804</v>
       </c>
       <c r="M8" s="15" t="n">
-        <v>0.04459910742393958</v>
+        <v>0.03412598141854173</v>
       </c>
     </row>
     <row r="9">
@@ -1731,40 +1731,40 @@
         <v>2020</v>
       </c>
       <c r="B9" s="15" t="n">
-        <v>0.07208682912599551</v>
+        <v>0.07209296545342303</v>
       </c>
       <c r="C9" s="15" t="n">
-        <v>0.07460640227686377</v>
+        <v>0.07461390305667503</v>
       </c>
       <c r="D9" s="15" t="n">
-        <v>-0.01994170491747216</v>
+        <v>-0.02974547735649569</v>
       </c>
       <c r="E9" s="15" t="n">
-        <v>0.04258653380010902</v>
+        <v>-0.00867007038338885</v>
       </c>
       <c r="F9" s="15" t="n">
-        <v>0.008327615703287439</v>
+        <v>0.008328358517976753</v>
       </c>
       <c r="G9" s="15" t="n">
-        <v>0.1684627266676562</v>
+        <v>0.1684835895163184</v>
       </c>
       <c r="H9" s="15" t="n">
-        <v>0.1465009699061171</v>
+        <v>0.1465168690701255</v>
       </c>
       <c r="I9" s="15" t="n">
-        <v>0.0005293158610022441</v>
+        <v>-0.03883361220032411</v>
       </c>
       <c r="J9" s="15" t="n">
-        <v>-0.02906940961819837</v>
+        <v>-0.05811094899046687</v>
       </c>
       <c r="K9" s="15" t="n">
-        <v>-0.05834047905460682</v>
+        <v>-0.1227377129667774</v>
       </c>
       <c r="L9" s="15" t="n">
-        <v>0.06226931330472096</v>
+        <v>0.04100514634930863</v>
       </c>
       <c r="M9" s="15" t="n">
-        <v>0.07299164748143894</v>
+        <v>0.05163008634367183</v>
       </c>
     </row>
     <row r="10">
@@ -1772,40 +1772,40 @@
         <v>2021</v>
       </c>
       <c r="B10" s="15" t="n">
-        <v>0.04462646949328475</v>
+        <v>0.003627057940377876</v>
       </c>
       <c r="C10" s="15" t="n">
-        <v>-0.03852446969542533</v>
+        <v>-0.104200027518128</v>
       </c>
       <c r="D10" s="15" t="n">
         <v>0</v>
       </c>
       <c r="E10" s="15" t="n">
-        <v>0.07654648748446746</v>
+        <v>0.04440537387377086</v>
       </c>
       <c r="F10" s="15" t="n">
-        <v>0.07041120012354307</v>
+        <v>0.07042683213021861</v>
       </c>
       <c r="G10" s="15" t="n">
-        <v>0.05080140300595759</v>
+        <v>0.05081198323854963</v>
       </c>
       <c r="H10" s="15" t="n">
-        <v>-0.07041672360442841</v>
+        <v>-0.07972832754251313</v>
       </c>
       <c r="I10" s="15" t="n">
-        <v>-0.0348433471817241</v>
+        <v>-0.07333672897210408</v>
       </c>
       <c r="J10" s="15" t="n">
-        <v>-0.02929642286479306</v>
+        <v>-0.07727964430584366</v>
       </c>
       <c r="K10" s="15" t="n">
-        <v>0.01082300617264953</v>
+        <v>-0.04868576882965381</v>
       </c>
       <c r="L10" s="15" t="n">
-        <v>0.04325303357492283</v>
+        <v>0.04327492117052212</v>
       </c>
       <c r="M10" s="15" t="n">
-        <v>-0.03290117977630092</v>
+        <v>-0.05212680127592006</v>
       </c>
     </row>
     <row r="11">
@@ -1813,7 +1813,7 @@
         <v>2022</v>
       </c>
       <c r="B11" s="15" t="n">
-        <v>-0.02216351245771009</v>
+        <v>-0.03195924909199221</v>
       </c>
       <c r="C11" s="15" t="n">
         <v>0</v>
@@ -1822,16 +1822,16 @@
         <v>0</v>
       </c>
       <c r="E11" s="15" t="n">
-        <v>0.0007682355959273135</v>
+        <v>-0.03869177018633563</v>
       </c>
       <c r="F11" s="15" t="n">
-        <v>0.03736901333494491</v>
+        <v>0.02693098254271442</v>
       </c>
       <c r="G11" s="15" t="n">
-        <v>0.1686054907055301</v>
+        <v>0.1686302113235447</v>
       </c>
       <c r="H11" s="15" t="n">
-        <v>-0.01019635209928749</v>
+        <v>-0.01019735181789116</v>
       </c>
       <c r="I11" s="15" t="n">
         <v/>
@@ -1941,40 +1941,40 @@
         <v>2013</v>
       </c>
       <c r="B2" s="15" t="n">
-        <v>-0.02076834520177806</v>
+        <v>-0.0691441546831203</v>
       </c>
       <c r="C2" s="15" t="n">
-        <v>-0.08801378443705599</v>
+        <v>-0.1247583024790042</v>
       </c>
       <c r="D2" s="15" t="n">
-        <v>-4.119671651592327e-07</v>
+        <v>5.273053171883646e-07</v>
       </c>
       <c r="E2" s="15" t="n">
-        <v>-0.01223291822495165</v>
+        <v>-0.07018246916161086</v>
       </c>
       <c r="F2" s="15" t="n">
-        <v>-8.636037361009485e-06</v>
+        <v>9.261184394704358e-06</v>
       </c>
       <c r="G2" s="15" t="n">
-        <v>0.007084535119706414</v>
+        <v>-0.002950187104464042</v>
       </c>
       <c r="H2" s="15" t="n">
-        <v>-0.08698977308812328</v>
+        <v>-0.09653494018117026</v>
       </c>
       <c r="I2" s="15" t="n">
-        <v>-0.06306616189979719</v>
+        <v>-0.1011050938850375</v>
       </c>
       <c r="J2" s="15" t="n">
-        <v>-0.09799068557404023</v>
+        <v>-0.1690986913849137</v>
       </c>
       <c r="K2" s="15" t="n">
-        <v>0.03384889143358905</v>
+        <v>0.02342485814639739</v>
       </c>
       <c r="L2" s="15" t="n">
-        <v>-0.07549277470033455</v>
+        <v>-0.1390358014646901</v>
       </c>
       <c r="M2" s="15" t="n">
-        <v>-0.1052093539497395</v>
+        <v>-0.1403033361677085</v>
       </c>
     </row>
     <row r="3">
@@ -1982,40 +1982,40 @@
         <v>2014</v>
       </c>
       <c r="B3" s="15" t="n">
-        <v>-1.513371046135692e-05</v>
+        <v>0.0001376251354154867</v>
       </c>
       <c r="C3" s="15" t="n">
-        <v>-0.0001589749153250164</v>
+        <v>-0.01031033131272885</v>
       </c>
       <c r="D3" s="15" t="n">
-        <v>0.07215059326924611</v>
+        <v>0.05052009703848737</v>
       </c>
       <c r="E3" s="15" t="n">
-        <v>0.03521909713552174</v>
+        <v>0.02486383062298514</v>
       </c>
       <c r="F3" s="15" t="n">
-        <v>-0.04923476290953177</v>
+        <v>-0.06877497227932483</v>
       </c>
       <c r="G3" s="15" t="n">
-        <v>-6.33371247715786e-06</v>
+        <v>1.023875442074385e-05</v>
       </c>
       <c r="H3" s="15" t="n">
-        <v>0.0964291869447842</v>
+        <v>0.07433888250835241</v>
       </c>
       <c r="I3" s="15" t="n">
-        <v>-0.07006296500374343</v>
+        <v>-0.08881887084774187</v>
       </c>
       <c r="J3" s="15" t="n">
-        <v>-9.100419851248986e-06</v>
+        <v>1.069513043594483e-05</v>
       </c>
       <c r="K3" s="15" t="n">
-        <v>-0.02089390082251463</v>
+        <v>-0.05994346112276516</v>
       </c>
       <c r="L3" s="15" t="n">
-        <v>0.1037051700602978</v>
+        <v>0.08142845942840093</v>
       </c>
       <c r="M3" s="15" t="n">
-        <v>0.4160761050192376</v>
+        <v>0.4161771676820327</v>
       </c>
     </row>
     <row r="4">
@@ -2023,40 +2023,40 @@
         <v>2015</v>
       </c>
       <c r="B4" s="15" t="n">
-        <v>-0.1611017123898741</v>
+        <v>-0.1779917318804745</v>
       </c>
       <c r="C4" s="15" t="n">
-        <v>-9.332889056579141e-06</v>
+        <v>1.920068701211086e-05</v>
       </c>
       <c r="D4" s="15" t="n">
-        <v>-1.128547635587118e-05</v>
+        <v>2.307944857915523e-05</v>
       </c>
       <c r="E4" s="15" t="n">
-        <v>-0.08644912512968794</v>
+        <v>-0.1567758961012533</v>
       </c>
       <c r="F4" s="15" t="n">
-        <v>-0.03472725656157105</v>
+        <v>-0.07192220556641038</v>
       </c>
       <c r="G4" s="15" t="n">
-        <v>0.1348020791833746</v>
+        <v>0.1240647358409395</v>
       </c>
       <c r="H4" s="15" t="n">
         <v>0.08807385286485703</v>
       </c>
       <c r="I4" s="15" t="n">
-        <v>0.2727985597292526</v>
+        <v>0.222554245723865</v>
       </c>
       <c r="J4" s="15" t="n">
-        <v>-0.1047175567252276</v>
+        <v>-0.1315517627999228</v>
       </c>
       <c r="K4" s="15" t="n">
-        <v>-6.137712172282761e-06</v>
+        <v>1.01241789922657e-05</v>
       </c>
       <c r="L4" s="15" t="n">
-        <v>-2.815103054998325e-06</v>
+        <v>1.714375444272775e-06</v>
       </c>
       <c r="M4" s="15" t="n">
-        <v>-0.04169267838589741</v>
+        <v>-0.1336674452100758</v>
       </c>
     </row>
     <row r="5">
@@ -2064,40 +2064,40 @@
         <v>2016</v>
       </c>
       <c r="B5" s="15" t="n">
-        <v>0.173504208816841</v>
+        <v>0.1610368379942879</v>
       </c>
       <c r="C5" s="15" t="n">
-        <v>0.0460455799513102</v>
+        <v>0.02481695883616863</v>
       </c>
       <c r="D5" s="15" t="n">
-        <v>-0.127131655010166</v>
+        <v>-0.1536285716693294</v>
       </c>
       <c r="E5" s="15" t="n">
-        <v>-0.0174472322943735</v>
+        <v>-0.04648145791683245</v>
       </c>
       <c r="F5" s="15" t="n">
-        <v>-0.0131749607297359</v>
+        <v>-0.03288623562256132</v>
       </c>
       <c r="G5" s="15" t="n">
-        <v>-0.01827790028355702</v>
+        <v>-0.02817915961543216</v>
       </c>
       <c r="H5" s="15" t="n">
-        <v>0.01069404089260328</v>
+        <v>-0.008427166536766784</v>
       </c>
       <c r="I5" s="15" t="n">
-        <v>-0.0663945072376344</v>
+        <v>-0.1217183981713812</v>
       </c>
       <c r="J5" s="15" t="n">
-        <v>-0.007463114782828462</v>
+        <v>-0.05602472601779618</v>
       </c>
       <c r="K5" s="15" t="n">
-        <v>-0.01949447260632942</v>
+        <v>-0.06805530202073118</v>
       </c>
       <c r="L5" s="15" t="n">
-        <v>0.05998056258225382</v>
+        <v>0.05999538011517891</v>
       </c>
       <c r="M5" s="15" t="n">
-        <v>0.04831243344943359</v>
+        <v>0.03769697627786539</v>
       </c>
     </row>
     <row r="6">
@@ -2105,40 +2105,40 @@
         <v>2017</v>
       </c>
       <c r="B6" s="15" t="n">
-        <v>0.05519042431187438</v>
+        <v>0.04438129992561679</v>
       </c>
       <c r="C6" s="15" t="n">
-        <v>-0.002111459160000329</v>
+        <v>-0.0220660847891393</v>
       </c>
       <c r="D6" s="15" t="n">
-        <v>-0.007356157674061947</v>
+        <v>-0.01710558324223488</v>
       </c>
       <c r="E6" s="15" t="n">
-        <v>0.01770399720686466</v>
+        <v>0.007261617627163153</v>
       </c>
       <c r="F6" s="15" t="n">
-        <v>0.08512538385063939</v>
+        <v>0.06338275312235164</v>
       </c>
       <c r="G6" s="15" t="n">
-        <v>0.01391648498488074</v>
+        <v>-0.00630035588414235</v>
       </c>
       <c r="H6" s="15" t="n">
-        <v>0.04238150822646469</v>
+        <v>-0.05823652807670676</v>
       </c>
       <c r="I6" s="15" t="n">
-        <v>-0.0526214963545224</v>
+        <v>-0.07174636561935643</v>
       </c>
       <c r="J6" s="15" t="n">
-        <v>-0.005441228346092952</v>
+        <v>-0.04499040746354155</v>
       </c>
       <c r="K6" s="15" t="n">
-        <v>0.04966556118249055</v>
+        <v>-0.01209123812164947</v>
       </c>
       <c r="L6" s="15" t="n">
-        <v>0.06927521510594459</v>
+        <v>0.06927787752003201</v>
       </c>
       <c r="M6" s="15" t="n">
-        <v>0.0007389740527736777</v>
+        <v>-0.0579973330665734</v>
       </c>
     </row>
     <row r="7">
@@ -2146,40 +2146,40 @@
         <v>2018</v>
       </c>
       <c r="B7" s="15" t="n">
-        <v>0.09418148651160507</v>
+        <v>0.05096899781321995</v>
       </c>
       <c r="C7" s="15" t="n">
-        <v>-0.07730941999429863</v>
+        <v>-0.08671176714892004</v>
       </c>
       <c r="D7" s="15" t="n">
-        <v>-0.01862166697178069</v>
+        <v>-0.02841269605087426</v>
       </c>
       <c r="E7" s="15" t="n">
-        <v>0.004724656854537601</v>
+        <v>-0.02562428645452508</v>
       </c>
       <c r="F7" s="15" t="n">
-        <v>-0.004504800011046473</v>
+        <v>-0.09984778254612559</v>
       </c>
       <c r="G7" s="15" t="n">
-        <v>0.08280174974458188</v>
+        <v>0.06164351794411749</v>
       </c>
       <c r="H7" s="15" t="n">
-        <v>-0.005126506903233019</v>
+        <v>-0.03446102212676083</v>
       </c>
       <c r="I7" s="15" t="n">
-        <v>0.01320474946932482</v>
+        <v>0.003335764000437447</v>
       </c>
       <c r="J7" s="15" t="n">
-        <v>0.05965049039625048</v>
+        <v>0.00800960505255488</v>
       </c>
       <c r="K7" s="15" t="n">
-        <v>0.009896516359752638</v>
+        <v>-0.01931128432742168</v>
       </c>
       <c r="L7" s="15" t="n">
-        <v>-0.03835223875063687</v>
+        <v>-0.04768452520730737</v>
       </c>
       <c r="M7" s="15" t="n">
-        <v>0.0629260577650721</v>
+        <v>0.03078926634394685</v>
       </c>
     </row>
     <row r="8">
@@ -2187,40 +2187,40 @@
         <v>2019</v>
       </c>
       <c r="B8" s="15" t="n">
-        <v>0.03166436975021725</v>
+        <v>0.02108826131258379</v>
       </c>
       <c r="C8" s="15" t="n">
-        <v>-0.07831585253720563</v>
+        <v>-0.09660335209078552</v>
       </c>
       <c r="D8" s="15" t="n">
-        <v>-2.811018289139433e-06</v>
+        <v>8.173136782918533e-06</v>
       </c>
       <c r="E8" s="15" t="n">
-        <v>0.05508736345254617</v>
+        <v>0.03450197664576327</v>
       </c>
       <c r="F8" s="15" t="n">
-        <v>0.03323298185749723</v>
+        <v>0.02280341607877068</v>
       </c>
       <c r="G8" s="15" t="n">
-        <v>0.01317236158353929</v>
+        <v>-0.01682109969562318</v>
       </c>
       <c r="H8" s="15" t="n">
-        <v>-0.02954791837865189</v>
+        <v>-0.04891105215545355</v>
       </c>
       <c r="I8" s="15" t="n">
-        <v>-0.02408717506681701</v>
+        <v>-0.06234403624744167</v>
       </c>
       <c r="J8" s="15" t="n">
-        <v>0.001678999895159405</v>
+        <v>-0.01873044089497578</v>
       </c>
       <c r="K8" s="15" t="n">
-        <v>-0.01687375626633758</v>
+        <v>-0.09281651621625031</v>
       </c>
       <c r="L8" s="15" t="n">
-        <v>0.02117622194646507</v>
+        <v>-0.08596608174028642</v>
       </c>
       <c r="M8" s="15" t="n">
-        <v>-0.033369128094623</v>
+        <v>-0.04302847744490201</v>
       </c>
     </row>
     <row r="9">
@@ -2228,40 +2228,40 @@
         <v>2020</v>
       </c>
       <c r="B9" s="15" t="n">
-        <v>-1.671744455311597e-06</v>
+        <v>4.435451614881458e-06</v>
       </c>
       <c r="C9" s="15" t="n">
-        <v>-1.737213682906358e-06</v>
+        <v>6.845655362130998e-06</v>
       </c>
       <c r="D9" s="15" t="n">
-        <v>0.07537043712477431</v>
+        <v>0.06469441937499942</v>
       </c>
       <c r="E9" s="15" t="n">
-        <v>-0.06067557306691573</v>
+        <v>-0.10684694555297</v>
       </c>
       <c r="F9" s="15" t="n">
-        <v>-1.900609383209684e-07</v>
+        <v>9.242103535811452e-07</v>
       </c>
       <c r="G9" s="15" t="n">
-        <v>-2.299688244500331e-06</v>
+        <v>1.597191858504488e-05</v>
       </c>
       <c r="H9" s="15" t="n">
-        <v>-1.961363955360618e-06</v>
+        <v>1.341968545021111e-05</v>
       </c>
       <c r="I9" s="15" t="n">
-        <v>0.02236337285170298</v>
+        <v>-0.01835435593403678</v>
       </c>
       <c r="J9" s="15" t="n">
-        <v>0.02405560317849798</v>
+        <v>-0.006736275338973141</v>
       </c>
       <c r="K9" s="15" t="n">
-        <v>-0.09001478669565954</v>
+        <v>-0.1524733220121529</v>
       </c>
       <c r="L9" s="15" t="n">
-        <v>0.06970972549490884</v>
+        <v>0.04766947096963325</v>
       </c>
       <c r="M9" s="15" t="n">
-        <v>-0.04867570030091872</v>
+        <v>-0.0676268805633512</v>
       </c>
     </row>
     <row r="10">
@@ -2269,40 +2269,40 @@
         <v>2021</v>
       </c>
       <c r="B10" s="15" t="n">
-        <v>-0.009905558444716855</v>
+        <v>-0.04999319410928149</v>
       </c>
       <c r="C10" s="15" t="n">
-        <v>0.03185279893105197</v>
+        <v>-0.03794125277394678</v>
       </c>
       <c r="D10" s="15" t="n">
         <v>0.04291606568309714</v>
       </c>
       <c r="E10" s="15" t="n">
-        <v>-0.04056196240571275</v>
+        <v>-0.0694200002481461</v>
       </c>
       <c r="F10" s="15" t="n">
-        <v>-1.620778170785542e-06</v>
+        <v>1.416086906425029e-05</v>
       </c>
       <c r="G10" s="15" t="n">
-        <v>-1.139685895767961e-06</v>
+        <v>1.002581412001824e-05</v>
       </c>
       <c r="H10" s="15" t="n">
-        <v>-0.06334748820364788</v>
+        <v>-0.0723435882146739</v>
       </c>
       <c r="I10" s="15" t="n">
-        <v>0.02920977855912676</v>
+        <v>-0.01205154483897786</v>
       </c>
       <c r="J10" s="15" t="n">
-        <v>-0.04254882583754382</v>
+        <v>-0.08950493126650338</v>
       </c>
       <c r="K10" s="15" t="n">
-        <v>-0.02245765349256423</v>
+        <v>-0.08009377348047686</v>
       </c>
       <c r="L10" s="15" t="n">
-        <v>-3.489917725918446e-07</v>
+        <v>2.135558274729554e-05</v>
       </c>
       <c r="M10" s="15" t="n">
-        <v>0.01637378509039844</v>
+        <v>-0.003608788722309741</v>
       </c>
     </row>
     <row r="11">
@@ -2310,7 +2310,7 @@
         <v>2022</v>
       </c>
       <c r="B11" s="15" t="n">
-        <v>0.1111204860149024</v>
+        <v>0.1001097645985498</v>
       </c>
       <c r="C11" s="15" t="n">
         <v>0.004280811429914433</v>
@@ -2319,16 +2319,16 @@
         <v>0.07009750317718355</v>
       </c>
       <c r="E11" s="15" t="n">
-        <v>0.1323444016389579</v>
+        <v>0.08801838999443823</v>
       </c>
       <c r="F11" s="15" t="n">
-        <v>-0.003881523171332057</v>
+        <v>-0.0135381035280242</v>
       </c>
       <c r="G11" s="15" t="n">
-        <v>-2.115834817018047e-06</v>
+        <v>1.998382344448046e-05</v>
       </c>
       <c r="H11" s="15" t="n">
-        <v>7.883500607874794e-08</v>
+        <v>-9.208835975993424e-07</v>
       </c>
       <c r="I11" s="15" t="n">
         <v/>

--- a/backtest/rotation_strategy/bt_report/rs_m_style_28/single_run/summary.xlsx
+++ b/backtest/rotation_strategy/bt_report/rs_m_style_28/single_run/summary.xlsx
@@ -617,7 +617,7 @@
       </c>
       <c r="B2" s="5" t="inlineStr">
         <is>
-          <t>2013-01-04</t>
+          <t>2014-04-16</t>
         </is>
       </c>
       <c r="C2" s="13" t="n"/>
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B8" s="7" t="n">
-        <v>5883090.757432673</v>
+        <v>90865738.73816782</v>
       </c>
       <c r="C8" s="13" t="n"/>
       <c r="D8" s="13" t="n"/>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="B9" s="7" t="n">
-        <v>-718.6875673274044</v>
+        <v>1916.472167819738</v>
       </c>
       <c r="C9" s="13" t="n"/>
       <c r="D9" s="13" t="n"/>
@@ -740,7 +740,7 @@
         </is>
       </c>
       <c r="B10" s="7" t="n">
-        <v>-0.4116909242567327</v>
+        <v>8.086573873816782</v>
       </c>
       <c r="C10" s="13" t="n"/>
       <c r="D10" s="13" t="n"/>
@@ -754,7 +754,7 @@
         </is>
       </c>
       <c r="B11" s="7" t="n">
-        <v>-0.05632497274844084</v>
+        <v>0.3205608577892443</v>
       </c>
       <c r="C11" s="13" t="n"/>
       <c r="D11" s="13" t="n"/>
@@ -768,7 +768,7 @@
         </is>
       </c>
       <c r="B12" s="7" t="n">
-        <v>0.5883090757432673</v>
+        <v>9.086573873816782</v>
       </c>
       <c r="C12" s="13" t="n"/>
       <c r="D12" s="13" t="n"/>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="B14" s="7" t="n">
-        <v>205.0206402744798</v>
+        <v>176.1695527098854</v>
       </c>
       <c r="C14" s="13" t="n"/>
       <c r="D14" s="13" t="n"/>
@@ -810,7 +810,7 @@
         </is>
       </c>
       <c r="B15" s="7" t="n">
-        <v>0.3690448443334061</v>
+        <v>0.7480790957847523</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1">
@@ -820,7 +820,7 @@
         </is>
       </c>
       <c r="B16" s="5" t="n">
-        <v>0.244368536467229</v>
+        <v>0.2269827517152699</v>
       </c>
       <c r="C16" s="13" t="n"/>
       <c r="D16" s="13" t="n"/>
@@ -834,7 +834,7 @@
         </is>
       </c>
       <c r="B17" s="5" t="n">
-        <v>-0.2579735780661687</v>
+        <v>1.14977109925425</v>
       </c>
       <c r="C17" s="13" t="n"/>
       <c r="D17" s="13" t="n"/>
@@ -848,7 +848,7 @@
         </is>
       </c>
       <c r="B18" s="5" t="n">
-        <v>0.1753816463294466</v>
+        <v>0.159449146203536</v>
       </c>
       <c r="C18" s="13" t="n"/>
       <c r="D18" s="13" t="n"/>
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="B19" s="5" t="n">
-        <v>-0.3594482492245801</v>
+        <v>1.636748857960538</v>
       </c>
       <c r="C19" s="13" t="n"/>
       <c r="D19" s="13" t="n"/>
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="B20" s="5" t="n">
-        <v>0.7806130471127317</v>
+        <v>0.2796804861670674</v>
       </c>
       <c r="C20" s="13" t="n"/>
       <c r="D20" s="13" t="n"/>
@@ -890,7 +890,7 @@
         </is>
       </c>
       <c r="B21" s="5" t="n">
-        <v>0.02595791840425363</v>
+        <v>0.02269421003826337</v>
       </c>
       <c r="C21" s="13" t="n"/>
       <c r="D21" s="13" t="n"/>
@@ -904,7 +904,7 @@
         </is>
       </c>
       <c r="B22" s="7" t="n">
-        <v>-0.9051519664944261</v>
+        <v>1.922168052365963</v>
       </c>
       <c r="C22" s="13" t="n"/>
       <c r="D22" s="13" t="n"/>
@@ -918,7 +918,7 @@
         </is>
       </c>
       <c r="B23" s="7" t="n">
-        <v>-0.2269465653542007</v>
+        <v>0.1446661859927352</v>
       </c>
       <c r="C23" s="13" t="n"/>
       <c r="D23" s="13" t="n"/>
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="B24" s="7" t="n">
-        <v>-0.1527303182788613</v>
+        <v>0.2540516347027135</v>
       </c>
       <c r="C24" s="13" t="n"/>
       <c r="D24" s="13" t="n"/>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="B25" s="7" t="n">
-        <v>0.487526118146893</v>
+        <v>0.4563526160712286</v>
       </c>
       <c r="C25" s="13" t="n"/>
       <c r="D25" s="13" t="n"/>
@@ -960,7 +960,7 @@
         </is>
       </c>
       <c r="B26" s="7" t="n">
-        <v>-0.7061472545087768</v>
+        <v>1.580250405150072</v>
       </c>
       <c r="C26" s="13" t="n"/>
       <c r="D26" s="13" t="n"/>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B27" s="7" t="n">
-        <v>-0.9074763740388506</v>
+        <v>0.6730126845800901</v>
       </c>
       <c r="C27" s="13" t="n"/>
       <c r="D27" s="13" t="n"/>
@@ -988,7 +988,7 @@
         </is>
       </c>
       <c r="B28" s="7" t="n">
-        <v>0.9274025278298395</v>
+        <v>0.3038142837663284</v>
       </c>
       <c r="C28" s="13" t="n"/>
       <c r="D28" s="13" t="n"/>
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="B29" s="7" t="n">
-        <v>0.2493561614641114</v>
+        <v>0.2452529037430702</v>
       </c>
       <c r="C29" s="13" t="n"/>
       <c r="D29" s="13" t="n"/>
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="B30" s="5" t="n">
-        <v>-0.1532168393948898</v>
+        <v>0.2445780338470299</v>
       </c>
       <c r="C30" s="13" t="n"/>
       <c r="D30" s="13" t="n"/>
@@ -1030,7 +1030,7 @@
         </is>
       </c>
       <c r="B31" s="5" t="n">
-        <v>0.5202877683200188</v>
+        <v>0.506839066921105</v>
       </c>
       <c r="C31" s="13" t="n"/>
       <c r="D31" s="13" t="n"/>
@@ -1044,7 +1044,7 @@
         </is>
       </c>
       <c r="B32" s="5" t="n">
-        <v>-0.239802173006628</v>
+        <v>1.124255517922692</v>
       </c>
       <c r="C32" s="13" t="n"/>
       <c r="D32" s="13" t="n"/>
@@ -1058,7 +1058,7 @@
         </is>
       </c>
       <c r="B33" s="5" t="n">
-        <v>-0.3437089119580535</v>
+        <v>1.655367567960319</v>
       </c>
     </row>
     <row r="34" ht="20" customHeight="1">
@@ -1068,7 +1068,7 @@
         </is>
       </c>
       <c r="B34" s="5" t="n">
-        <v>-0.6888431542187478</v>
+        <v>1.57387688300802</v>
       </c>
     </row>
     <row r="35" ht="20" customHeight="1">
@@ -1078,7 +1078,7 @@
         </is>
       </c>
       <c r="B35" s="5" t="n">
-        <v>0.03376157413194376</v>
+        <v>0.03109607922411479</v>
       </c>
     </row>
     <row r="36" ht="20" customHeight="1">
@@ -1088,7 +1088,7 @@
         </is>
       </c>
       <c r="B36" s="16" t="n">
-        <v>0.7725643304250135</v>
+        <v>0.252628907806943</v>
       </c>
     </row>
   </sheetData>
@@ -1102,7 +1102,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
@@ -1154,202 +1154,182 @@
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="9" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B2" s="13" t="n">
-        <v>-0.2721940000000009</v>
+        <v>0.6938679999999976</v>
       </c>
       <c r="C2" s="13" t="n">
-        <v>-0.6139129038818755</v>
+        <v>0.5414182350737048</v>
       </c>
       <c r="D2" s="13" t="n">
-        <v>-1.140604301419033</v>
+        <v>3.248428513679279</v>
       </c>
       <c r="E2" s="13" t="n">
-        <v>-5.102023721756177</v>
+        <v>5.097451873517654</v>
       </c>
       <c r="F2" s="13" t="n">
-        <v>0.4615384615384616</v>
+        <v>0.5263157894736842</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="9" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B3" s="13" t="n">
-        <v>0.6302311330217122</v>
+        <v>1.111806232835142</v>
       </c>
       <c r="C3" s="13" t="n">
-        <v>0.3986480142632822</v>
+        <v>-0.002580242686400786</v>
       </c>
       <c r="D3" s="13" t="n">
-        <v>2.228134111156396</v>
+        <v>2.327853379199996</v>
       </c>
       <c r="E3" s="13" t="n">
-        <v>2.844663935413519</v>
+        <v>2.748670818563979</v>
       </c>
       <c r="F3" s="13" t="n">
-        <v>0.6037735849056604</v>
+        <v>0.3076923076923077</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="9" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B4" s="13" t="n">
-        <v>0.5305151657154035</v>
+        <v>-0.1856333626958667</v>
       </c>
       <c r="C4" s="13" t="n">
-        <v>-0.276275139223725</v>
+        <v>0.04072763028752212</v>
       </c>
       <c r="D4" s="13" t="n">
-        <v>1.362305601094252</v>
+        <v>-1.015173493269767</v>
       </c>
       <c r="E4" s="13" t="n">
-        <v>0.5232798549325148</v>
+        <v>-0.6645484515754287</v>
       </c>
       <c r="F4" s="13" t="n">
-        <v>0.5576923076923077</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="9" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B5" s="13" t="n">
-        <v>-0.4052123854039547</v>
+        <v>0.1776726278093892</v>
       </c>
       <c r="C5" s="13" t="n">
-        <v>-0.2394462679848458</v>
+        <v>0.2910727529988782</v>
       </c>
       <c r="D5" s="13" t="n">
-        <v>-2.462312058806178</v>
+        <v>1.589811111960577</v>
       </c>
       <c r="E5" s="13" t="n">
-        <v>-1.809163984991723</v>
+        <v>1.985212361327846</v>
       </c>
       <c r="F5" s="13" t="n">
-        <v>0.38</v>
+        <v>0.5686274509803921</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="9" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B6" s="13" t="n">
-        <v>-0.1894230261799599</v>
+        <v>-0.1147620402347778</v>
       </c>
       <c r="C6" s="13" t="n">
-        <v>-0.1123571079761262</v>
+        <v>0.183148500416589</v>
       </c>
       <c r="D6" s="13" t="n">
-        <v>-1.571315249757053</v>
+        <v>-0.6044110714643095</v>
       </c>
       <c r="E6" s="13" t="n">
-        <v>-1.365351119870968</v>
+        <v>-0.05934756147396066</v>
       </c>
       <c r="F6" s="13" t="n">
-        <v>0.4901960784313725</v>
+        <v>0.5686274509803921</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="9" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B7" s="13" t="n">
-        <v>-0.3902433452693013</v>
+        <v>0.4227268506536475</v>
       </c>
       <c r="C7" s="13" t="n">
-        <v>-0.1836744340851251</v>
+        <v>-0.0331160053089667</v>
       </c>
       <c r="D7" s="13" t="n">
-        <v>-2.527774526824052</v>
+        <v>1.829734680543482</v>
       </c>
       <c r="E7" s="13" t="n">
-        <v>-1.766826540304489</v>
+        <v>1.139455654469798</v>
       </c>
       <c r="F7" s="13" t="n">
-        <v>0.4117647058823529</v>
+        <v>0.4423076923076923</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="9" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B8" s="13" t="n">
-        <v>-0.02025306971124501</v>
+        <v>0.6579744378067192</v>
       </c>
       <c r="C8" s="13" t="n">
-        <v>-0.3336371226263184</v>
+        <v>-0.02067089216749628</v>
       </c>
       <c r="D8" s="13" t="n">
-        <v>0.0178394052223151</v>
+        <v>2.126901404388061</v>
       </c>
       <c r="E8" s="13" t="n">
-        <v>-2.315579449627135</v>
+        <v>1.443312666581922</v>
       </c>
       <c r="F8" s="13" t="n">
-        <v>0.4038461538461539</v>
+        <v>0.3461538461538461</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="9" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B9" s="13" t="n">
-        <v>0.3014800213370868</v>
+        <v>0.0802227563035494</v>
       </c>
       <c r="C9" s="13" t="n">
-        <v>-0.2323634237040063</v>
+        <v>-0.06254801158272648</v>
       </c>
       <c r="D9" s="13" t="n">
-        <v>1.148932815491515</v>
+        <v>0.4725826209560937</v>
       </c>
       <c r="E9" s="13" t="n">
-        <v>-1.106114415786744</v>
+        <v>0.0432755844685541</v>
       </c>
       <c r="F9" s="13" t="n">
-        <v>0.5384615384615384</v>
+        <v>0.4038461538461539</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="9" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B10" s="13" t="n">
-        <v>-0.2181640828714423</v>
+        <v>0.1742194602369102</v>
       </c>
       <c r="C10" s="13" t="n">
-        <v>-0.3215409474370756</v>
+        <v>0.3468758209802522</v>
       </c>
       <c r="D10" s="13" t="n">
-        <v>-0.9827117939158591</v>
+        <v>2.621708636238428</v>
       </c>
       <c r="E10" s="13" t="n">
-        <v>-1.944708210867745</v>
+        <v>3.869568768409189</v>
       </c>
       <c r="F10" s="13" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="9" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B11" s="13" t="n">
-        <v>0.1054097168593541</v>
-      </c>
-      <c r="C11" s="13" t="n">
-        <v>0.2689349655054246</v>
-      </c>
-      <c r="D11" s="13" t="n">
-        <v>1.595617634235845</v>
-      </c>
-      <c r="E11" s="13" t="n">
-        <v>2.408458001957063</v>
-      </c>
-      <c r="F11" s="13" t="n">
-        <v>0.6</v>
+        <v>0.52</v>
       </c>
     </row>
   </sheetData>
@@ -1363,7 +1343,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:XFD2"/>
@@ -1441,411 +1421,370 @@
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="15" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B2" s="15" t="n">
-        <v>0.0129589999999995</v>
+        <v/>
       </c>
       <c r="C2" s="15" t="n">
-        <v>-0.02671677728318722</v>
+        <v/>
       </c>
       <c r="D2" s="15" t="n">
-        <v>0.006224794501651587</v>
+        <v/>
       </c>
       <c r="E2" s="15" t="n">
-        <v>-0.04310239679526795</v>
+        <v>-0.02515199999999995</v>
       </c>
       <c r="F2" s="15" t="n">
-        <v>0.2064935940518755</v>
+        <v>-0.0192696707589286</v>
       </c>
       <c r="G2" s="15" t="n">
-        <v>-0.05400190169677099</v>
+        <v>0.06568500192978854</v>
       </c>
       <c r="H2" s="15" t="n">
-        <v>0.01595466313472294</v>
+        <v>0.05219450720509733</v>
       </c>
       <c r="I2" s="15" t="n">
-        <v>-0.05873460454915902</v>
+        <v>-0.01328027566109835</v>
       </c>
       <c r="J2" s="15" t="n">
-        <v>-0.03732723341826871</v>
+        <v>0.08170795345829718</v>
       </c>
       <c r="K2" s="15" t="n">
-        <v>-0.07446516263186709</v>
+        <v>-0.03786110370684359</v>
       </c>
       <c r="L2" s="15" t="n">
-        <v>-0.0431909126952319</v>
+        <v>0.1495513269440909</v>
       </c>
       <c r="M2" s="15" t="n">
-        <v>-0.1760030704331552</v>
+        <v>0.3384378091526568</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="15" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B3" s="15" t="n">
-        <v>0.1469855978104055</v>
+        <v>-0.03606715517383863</v>
       </c>
       <c r="C3" s="15" t="n">
-        <v>-0.05058320545578932</v>
+        <v>0.1472407404571965</v>
       </c>
       <c r="D3" s="15" t="n">
-        <v>-0.02059410238001802</v>
+        <v>0.2111504143208416</v>
       </c>
       <c r="E3" s="15" t="n">
-        <v>-0.00684972978543863</v>
+        <v>0.1249741042266308</v>
       </c>
       <c r="F3" s="15" t="n">
-        <v>-0.03906900604214714</v>
+        <v>0.1973627088361598</v>
       </c>
       <c r="G3" s="15" t="n">
-        <v>0.06569663295981787</v>
+        <v>-0.06446196723317821</v>
       </c>
       <c r="H3" s="15" t="n">
-        <v>0.0312324644348656</v>
+        <v>0</v>
       </c>
       <c r="I3" s="15" t="n">
-        <v>-0.03307604247018858</v>
+        <v>0.040334890540769</v>
       </c>
       <c r="J3" s="15" t="n">
-        <v>0.08172932789292631</v>
+        <v>-0.0381793240717081</v>
       </c>
       <c r="K3" s="15" t="n">
-        <v>-0.0760017521340921</v>
+        <v>0.1899386309200046</v>
       </c>
       <c r="L3" s="15" t="n">
-        <v>0.126593926145282</v>
+        <v>0.07839901812116379</v>
       </c>
       <c r="M3" s="15" t="n">
-        <v>0.3385197327229383</v>
+        <v>-0.02556331948864665</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="15" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B4" s="15" t="n">
-        <v>-0.05523846768456975</v>
+        <v>-0.1096921239175302</v>
       </c>
       <c r="C4" s="15" t="n">
-        <v>0.1472703559117607</v>
+        <v>0.0005045939400372124</v>
       </c>
       <c r="D4" s="15" t="n">
-        <v>0.2111870983293613</v>
+        <v>0.05440589314531419</v>
       </c>
       <c r="E4" s="15" t="n">
-        <v>0.03841736382668826</v>
+        <v>-0.06071699216180459</v>
       </c>
       <c r="F4" s="15" t="n">
-        <v>0.1503645510362179</v>
+        <v>0.005592717457333585</v>
       </c>
       <c r="G4" s="15" t="n">
-        <v>-0.07382412549397255</v>
+        <v>0.01279085890034537</v>
       </c>
       <c r="H4" s="15" t="n">
-        <v>0</v>
+        <v>-0.03704911401857602</v>
       </c>
       <c r="I4" s="15" t="n">
-        <v>-0.0009795069505531551</v>
+        <v>-0.03370021933027356</v>
       </c>
       <c r="J4" s="15" t="n">
-        <v>-0.06709811875736216</v>
+        <v>-0.02560976506882617</v>
       </c>
       <c r="K4" s="15" t="n">
-        <v>0.1899614596758623</v>
+        <v>-0.01378831087272114</v>
       </c>
       <c r="L4" s="15" t="n">
-        <v>0.07840429801241</v>
+        <v>0.07239585345034816</v>
       </c>
       <c r="M4" s="15" t="n">
-        <v>-0.118925444044218</v>
+        <v>-0.05476395284280977</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="15" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B5" s="15" t="n">
-        <v>-0.119487715480213</v>
+        <v>0.01758855207944254</v>
       </c>
       <c r="C5" s="15" t="n">
-        <v>-0.0194488796162009</v>
+        <v>0.01998768691017316</v>
       </c>
       <c r="D5" s="15" t="n">
-        <v>0.02269649835476684</v>
+        <v>-0.01751866581778183</v>
       </c>
       <c r="E5" s="15" t="n">
-        <v>-0.08873190773882278</v>
+        <v>-0.01113442846341772</v>
       </c>
       <c r="F5" s="15" t="n">
-        <v>-0.01446237298714526</v>
+        <v>0.03622158752421223</v>
       </c>
       <c r="G5" s="15" t="n">
-        <v>0.002549930939370393</v>
+        <v>0.04699349394138896</v>
       </c>
       <c r="H5" s="15" t="n">
-        <v>-0.05631320949968499</v>
+        <v>-7.02860422276963e-05</v>
       </c>
       <c r="I5" s="15" t="n">
-        <v>-0.09054903402864467</v>
+        <v>0.01012347050430318</v>
       </c>
       <c r="J5" s="15" t="n">
-        <v>-0.07346297070488117</v>
+        <v>0.004117099211124797</v>
       </c>
       <c r="K5" s="15" t="n">
-        <v>-0.06247441251125863</v>
+        <v>0.0534590737708236</v>
       </c>
       <c r="L5" s="15" t="n">
-        <v>0.07240917959676674</v>
+        <v>0.01445436660312405</v>
       </c>
       <c r="M5" s="15" t="n">
-        <v>-0.06422701116064877</v>
+        <v>-0.006836448358687686</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="15" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B6" s="15" t="n">
-        <v>0.007375236204762103</v>
+        <v>0.08703737818684631</v>
       </c>
       <c r="C6" s="15" t="n">
-        <v>-0.0003437288328754784</v>
+        <v>-0.0608509463003386</v>
       </c>
       <c r="D6" s="15" t="n">
-        <v>-0.0273487096083177</v>
+        <v>0.06436199205614801</v>
       </c>
       <c r="E6" s="15" t="n">
-        <v>-0.02109181375987057</v>
+        <v>-0.04243822275540099</v>
       </c>
       <c r="F6" s="15" t="n">
-        <v>0.01548909265067122</v>
+        <v>-0.0374576732242643</v>
       </c>
       <c r="G6" s="15" t="n">
-        <v>0.02616973146595947</v>
+        <v>0.006344296390811799</v>
       </c>
       <c r="H6" s="15" t="n">
-        <v>-0.09632550187871514</v>
+        <v>-0.02970928147522589</v>
       </c>
       <c r="I6" s="15" t="n">
-        <v>-0.009940107111985563</v>
+        <v>-0.06265313349127066</v>
       </c>
       <c r="J6" s="15" t="n">
-        <v>-0.03570722088101397</v>
+        <v>0.04304898369330168</v>
       </c>
       <c r="K6" s="15" t="n">
-        <v>-0.008431159848346526</v>
+        <v>-0.08011409418684878</v>
       </c>
       <c r="L6" s="15" t="n">
-        <v>0.01445592599813716</v>
+        <v>0.004796317255572724</v>
       </c>
       <c r="M6" s="15" t="n">
-        <v>-0.06519668661898892</v>
+        <v>0.001704275399294186</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="15" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B7" s="15" t="n">
-        <v>0.04417793159376604</v>
+        <v>0.01582506682682761</v>
       </c>
       <c r="C7" s="15" t="n">
-        <v>-0.07026930056673553</v>
+        <v>0.1550757954420954</v>
       </c>
       <c r="D7" s="15" t="n">
-        <v>0.05366941822049487</v>
+        <v>0.1027982909700644</v>
       </c>
       <c r="E7" s="15" t="n">
-        <v>-0.07118004377149501</v>
+        <v>0.01351311117608534</v>
       </c>
       <c r="F7" s="15" t="n">
-        <v>-0.1300747522883723</v>
+        <v>-0.04758461420262228</v>
       </c>
       <c r="G7" s="15" t="n">
-        <v>-0.0136204837925088</v>
+        <v>0.03536005398964481</v>
       </c>
       <c r="H7" s="15" t="n">
-        <v>-0.05882089217664177</v>
+        <v>0.009320292138516484</v>
       </c>
       <c r="I7" s="15" t="n">
-        <v>-0.07203442814271444</v>
+        <v>0.00180093273129045</v>
       </c>
       <c r="J7" s="15" t="n">
-        <v>-0.007730375289748515</v>
+        <v>0.01206034655554622</v>
       </c>
       <c r="K7" s="15" t="n">
-        <v>-0.1075051005066556</v>
+        <v>0.011603621715363</v>
       </c>
       <c r="L7" s="15" t="n">
-        <v>-0.005013884184346895</v>
+        <v>0.01735335829320528</v>
       </c>
       <c r="M7" s="15" t="n">
-        <v>-0.0281340399308937</v>
+        <v>0.04459949519858464</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="15" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B8" s="15" t="n">
-        <v>0.005449147224381612</v>
+        <v>0.07208738470767639</v>
       </c>
       <c r="C8" s="15" t="n">
-        <v>0.1320288251228692</v>
+        <v>0.0746070789261668</v>
       </c>
       <c r="D8" s="15" t="n">
-        <v>0.1028075066529957</v>
+        <v>-0.0199418420695785</v>
       </c>
       <c r="E8" s="15" t="n">
-        <v>-0.006688663744667145</v>
+        <v>0.04258696934627015</v>
       </c>
       <c r="F8" s="15" t="n">
-        <v>-0.05713882215781985</v>
+        <v>0.008327630127944685</v>
       </c>
       <c r="G8" s="15" t="n">
-        <v>0.004539696450623465</v>
+        <v>0.1684629060354341</v>
       </c>
       <c r="H8" s="15" t="n">
-        <v>-0.01084825450807658</v>
+        <v>0.1465013090992831</v>
       </c>
       <c r="I8" s="15" t="n">
-        <v>-0.03734214261087099</v>
+        <v>0.0005290655668708233</v>
       </c>
       <c r="J8" s="15" t="n">
-        <v>-0.008269212509099289</v>
+        <v>-0.02906954500709102</v>
       </c>
       <c r="K8" s="15" t="n">
-        <v>-0.0668783122107719</v>
+        <v>-0.05833955610744812</v>
       </c>
       <c r="L8" s="15" t="n">
-        <v>-0.08955033122119804</v>
+        <v>0.06226831838086255</v>
       </c>
       <c r="M8" s="15" t="n">
-        <v>0.03412598141854173</v>
+        <v>0.07299145765132753</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="15" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B9" s="15" t="n">
-        <v>0.07209296545342303</v>
+        <v>0.04462538438570096</v>
       </c>
       <c r="C9" s="15" t="n">
-        <v>0.07461390305667503</v>
+        <v>-0.03852159971435432</v>
       </c>
       <c r="D9" s="15" t="n">
-        <v>-0.02974547735649569</v>
+        <v>0</v>
       </c>
       <c r="E9" s="15" t="n">
-        <v>-0.00867007038338885</v>
+        <v>0.07654819645665167</v>
       </c>
       <c r="F9" s="15" t="n">
-        <v>0.008328358517976753</v>
+        <v>0.07041207804864769</v>
       </c>
       <c r="G9" s="15" t="n">
-        <v>0.1684835895163184</v>
+        <v>0.05080185944504922</v>
       </c>
       <c r="H9" s="15" t="n">
-        <v>0.1465168690701255</v>
+        <v>-0.07041741386861911</v>
       </c>
       <c r="I9" s="15" t="n">
-        <v>-0.03883361220032411</v>
+        <v>-0.03484322493465886</v>
       </c>
       <c r="J9" s="15" t="n">
-        <v>-0.05811094899046687</v>
+        <v>-0.02929652644171277</v>
       </c>
       <c r="K9" s="15" t="n">
-        <v>-0.1227377129667774</v>
+        <v>0.01082291132914537</v>
       </c>
       <c r="L9" s="15" t="n">
-        <v>0.04100514634930863</v>
+        <v>0.04325198431168853</v>
       </c>
       <c r="M9" s="15" t="n">
-        <v>0.05163008634367183</v>
+        <v>-0.03290045194411728</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="15" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B10" s="15" t="n">
-        <v>0.003627057940377876</v>
+        <v>-0.02216312297317469</v>
       </c>
       <c r="C10" s="15" t="n">
-        <v>-0.104200027518128</v>
+        <v>0</v>
       </c>
       <c r="D10" s="15" t="n">
         <v>0</v>
       </c>
       <c r="E10" s="15" t="n">
-        <v>0.04440537387377086</v>
+        <v>0.0007679511048666043</v>
       </c>
       <c r="F10" s="15" t="n">
-        <v>0.07042683213021861</v>
+        <v>0.03736857889109269</v>
       </c>
       <c r="G10" s="15" t="n">
-        <v>0.05081198323854963</v>
+        <v>0.1686037364047421</v>
       </c>
       <c r="H10" s="15" t="n">
-        <v>-0.07972832754251313</v>
+        <v>-0.01019620863519299</v>
       </c>
       <c r="I10" s="15" t="n">
-        <v>-0.07333672897210408</v>
+        <v/>
       </c>
       <c r="J10" s="15" t="n">
-        <v>-0.07727964430584366</v>
+        <v/>
       </c>
       <c r="K10" s="15" t="n">
-        <v>-0.04868576882965381</v>
+        <v/>
       </c>
       <c r="L10" s="15" t="n">
-        <v>0.04327492117052212</v>
+        <v/>
       </c>
       <c r="M10" s="15" t="n">
-        <v>-0.05212680127592006</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="15" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B11" s="15" t="n">
-        <v>-0.03195924909199221</v>
-      </c>
-      <c r="C11" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" s="15" t="n">
-        <v>-0.03869177018633563</v>
-      </c>
-      <c r="F11" s="15" t="n">
-        <v>0.02693098254271442</v>
-      </c>
-      <c r="G11" s="15" t="n">
-        <v>0.1686302113235447</v>
-      </c>
-      <c r="H11" s="15" t="n">
-        <v>-0.01019735181789116</v>
-      </c>
-      <c r="I11" s="15" t="n">
-        <v/>
-      </c>
-      <c r="J11" s="15" t="n">
-        <v/>
-      </c>
-      <c r="K11" s="15" t="n">
-        <v/>
-      </c>
-      <c r="L11" s="15" t="n">
-        <v/>
-      </c>
-      <c r="M11" s="15" t="n">
         <v/>
       </c>
     </row>
@@ -1860,7 +1799,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
@@ -1938,411 +1877,370 @@
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="15" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B2" s="15" t="n">
-        <v>-0.0691441546831203</v>
+        <v/>
       </c>
       <c r="C2" s="15" t="n">
-        <v>-0.1247583024790042</v>
+        <v/>
       </c>
       <c r="D2" s="15" t="n">
-        <v>5.273053171883646e-07</v>
+        <v/>
       </c>
       <c r="E2" s="15" t="n">
-        <v>-0.07018246916161086</v>
+        <v>0.03906541972469713</v>
       </c>
       <c r="F2" s="15" t="n">
-        <v>9.261184394704358e-06</v>
+        <v>-0.0492365364573697</v>
       </c>
       <c r="G2" s="15" t="n">
-        <v>-0.002950187104464042</v>
+        <v>-1.40335306952899e-06</v>
       </c>
       <c r="H2" s="15" t="n">
-        <v>-0.09653494018117026</v>
+        <v>0.09643210894388665</v>
       </c>
       <c r="I2" s="15" t="n">
-        <v>-0.1011050938850375</v>
+        <v>-0.07006371061493577</v>
       </c>
       <c r="J2" s="15" t="n">
-        <v>-0.1690986913849137</v>
+        <v>-9.782024355753371e-06</v>
       </c>
       <c r="K2" s="15" t="n">
-        <v>0.02342485814639739</v>
+        <v>-0.02089551960391545</v>
       </c>
       <c r="L2" s="15" t="n">
-        <v>-0.1390358014646901</v>
+        <v>0.1037106422377536</v>
       </c>
       <c r="M2" s="15" t="n">
-        <v>-0.1403033361677085</v>
+        <v>0.4160897044877097</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="15" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B3" s="15" t="n">
-        <v>0.0001376251354154867</v>
+        <v>-0.1611022615055706</v>
       </c>
       <c r="C3" s="15" t="n">
-        <v>-0.01031033131272885</v>
+        <v>-7.629826603849921e-06</v>
       </c>
       <c r="D3" s="15" t="n">
-        <v>0.05052009703848737</v>
+        <v>-8.935307708624052e-06</v>
       </c>
       <c r="E3" s="15" t="n">
-        <v>0.02486383062298514</v>
+        <v>-0.08644904642853002</v>
       </c>
       <c r="F3" s="15" t="n">
-        <v>-0.06877497227932483</v>
+        <v>-0.03473788489414742</v>
       </c>
       <c r="G3" s="15" t="n">
-        <v>1.023875442074385e-05</v>
+        <v>0.1348047920102358</v>
       </c>
       <c r="H3" s="15" t="n">
-        <v>0.07433888250835241</v>
+        <v>0.08807385286485769</v>
       </c>
       <c r="I3" s="15" t="n">
-        <v>-0.08881887084774187</v>
+        <v>0.2727991717288114</v>
       </c>
       <c r="J3" s="15" t="n">
-        <v>1.069513043594483e-05</v>
+        <v>-0.1047172234440088</v>
       </c>
       <c r="K3" s="15" t="n">
-        <v>-0.05994346112276516</v>
+        <v>-1.056528754850294e-05</v>
       </c>
       <c r="L3" s="15" t="n">
-        <v>0.08142845942840093</v>
+        <v>-4.408134477218439e-06</v>
       </c>
       <c r="M3" s="15" t="n">
-        <v>0.4161771676820327</v>
+        <v>-0.04169235033193919</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="15" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B4" s="15" t="n">
-        <v>-0.1779917318804745</v>
+        <v>0.1735012540578416</v>
       </c>
       <c r="C4" s="15" t="n">
-        <v>1.920068701211086e-05</v>
+        <v>0.04604550722074108</v>
       </c>
       <c r="D4" s="15" t="n">
-        <v>2.307944857915523e-05</v>
+        <v>-0.1271305953321022</v>
       </c>
       <c r="E4" s="15" t="n">
-        <v>-0.1567758961012533</v>
+        <v>-0.0174469478289031</v>
       </c>
       <c r="F4" s="15" t="n">
-        <v>-0.07192220556641038</v>
+        <v>-0.01317469839405172</v>
       </c>
       <c r="G4" s="15" t="n">
-        <v>0.1240647358409395</v>
+        <v>-0.01827863901902849</v>
       </c>
       <c r="H4" s="15" t="n">
-        <v>0.08807385286485703</v>
+        <v>0.01069501536062956</v>
       </c>
       <c r="I4" s="15" t="n">
-        <v>0.222554245723865</v>
+        <v>-0.06639430644947886</v>
       </c>
       <c r="J4" s="15" t="n">
-        <v>-0.1315517627999228</v>
+        <v>-0.007462818633336976</v>
       </c>
       <c r="K4" s="15" t="n">
-        <v>1.01241789922657e-05</v>
+        <v>-0.01949473893885911</v>
       </c>
       <c r="L4" s="15" t="n">
-        <v>1.714375444272775e-06</v>
+        <v>0.05998214904863008</v>
       </c>
       <c r="M4" s="15" t="n">
-        <v>-0.1336674452100758</v>
+        <v>0.04831131001751721</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="15" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B5" s="15" t="n">
-        <v>0.1610368379942879</v>
+        <v>0.05518929192536493</v>
       </c>
       <c r="C5" s="15" t="n">
-        <v>0.02481695883616863</v>
+        <v>-0.002112728503329442</v>
       </c>
       <c r="D5" s="15" t="n">
-        <v>-0.1536285716693294</v>
+        <v>-0.007356816016384826</v>
       </c>
       <c r="E5" s="15" t="n">
-        <v>-0.04648145791683245</v>
+        <v>0.0177041554020354</v>
       </c>
       <c r="F5" s="15" t="n">
-        <v>-0.03288623562256132</v>
+        <v>0.08512518608543207</v>
       </c>
       <c r="G5" s="15" t="n">
-        <v>-0.02817915961543216</v>
+        <v>0.01391592502711303</v>
       </c>
       <c r="H5" s="15" t="n">
-        <v>-0.008427166536766784</v>
+        <v>0.04237993894674341</v>
       </c>
       <c r="I5" s="15" t="n">
-        <v>-0.1217183981713812</v>
+        <v>-0.05262080127739166</v>
       </c>
       <c r="J5" s="15" t="n">
-        <v>-0.05602472601779618</v>
+        <v>-0.005441173047974646</v>
       </c>
       <c r="K5" s="15" t="n">
-        <v>-0.06805530202073118</v>
+        <v>0.04966659698889409</v>
       </c>
       <c r="L5" s="15" t="n">
-        <v>0.05999538011517891</v>
+        <v>0.06927610438110299</v>
       </c>
       <c r="M5" s="15" t="n">
-        <v>0.03769697627786539</v>
+        <v>0.0007388326516257759</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="15" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B6" s="15" t="n">
-        <v>0.04438129992561679</v>
+        <v>0.09418178671858146</v>
       </c>
       <c r="C6" s="15" t="n">
-        <v>-0.0220660847891393</v>
+        <v>-0.07731108807611231</v>
       </c>
       <c r="D6" s="15" t="n">
-        <v>-0.01710558324223488</v>
+        <v>-0.01862215961605751</v>
       </c>
       <c r="E6" s="15" t="n">
-        <v>0.007261617627163153</v>
+        <v>0.004725001384011884</v>
       </c>
       <c r="F6" s="15" t="n">
-        <v>0.06338275312235164</v>
+        <v>-0.004503957591124874</v>
       </c>
       <c r="G6" s="15" t="n">
-        <v>-0.00630035588414235</v>
+        <v>0.08280181507332829</v>
       </c>
       <c r="H6" s="15" t="n">
-        <v>-0.05823652807670676</v>
+        <v>-0.005125580254890072</v>
       </c>
       <c r="I6" s="15" t="n">
-        <v>-0.07174636561935643</v>
+        <v>0.01320276424095401</v>
       </c>
       <c r="J6" s="15" t="n">
-        <v>-0.04499040746354155</v>
+        <v>0.05964753157225378</v>
       </c>
       <c r="K6" s="15" t="n">
-        <v>-0.01209123812164947</v>
+        <v>0.009899080079587952</v>
       </c>
       <c r="L6" s="15" t="n">
-        <v>0.06927787752003201</v>
+        <v>-0.03835237091130561</v>
       </c>
       <c r="M6" s="15" t="n">
-        <v>-0.0579973330665734</v>
+        <v>0.06292470683149909</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="15" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B7" s="15" t="n">
-        <v>0.05096899781321995</v>
+        <v>0.03166493424817163</v>
       </c>
       <c r="C7" s="15" t="n">
-        <v>-0.08671176714892004</v>
+        <v>-0.07831207045774302</v>
       </c>
       <c r="D7" s="15" t="n">
-        <v>-0.02841269605087426</v>
+        <v>-1.157981065702529e-06</v>
       </c>
       <c r="E7" s="15" t="n">
-        <v>-0.02562428645452508</v>
+        <v>0.05508693014310118</v>
       </c>
       <c r="F7" s="15" t="n">
-        <v>-0.09984778254612559</v>
+        <v>0.03322994398362278</v>
       </c>
       <c r="G7" s="15" t="n">
-        <v>0.06164351794411749</v>
+        <v>0.01317082441037232</v>
       </c>
       <c r="H7" s="15" t="n">
-        <v>-0.03446102212676083</v>
+        <v>-0.02954769962068904</v>
       </c>
       <c r="I7" s="15" t="n">
-        <v>0.003335764000437447</v>
+        <v>-0.02408744269266949</v>
       </c>
       <c r="J7" s="15" t="n">
-        <v>0.00800960505255488</v>
+        <v>0.001679268049532334</v>
       </c>
       <c r="K7" s="15" t="n">
-        <v>-0.01931128432742168</v>
+        <v>-0.0168737176110757</v>
       </c>
       <c r="L7" s="15" t="n">
-        <v>-0.04768452520730737</v>
+        <v>0.02117570943133784</v>
       </c>
       <c r="M7" s="15" t="n">
-        <v>0.03078926634394685</v>
+        <v>-0.03336874185737115</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="15" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B8" s="15" t="n">
-        <v>0.02108826131258379</v>
+        <v>-1.115884230795672e-06</v>
       </c>
       <c r="C8" s="15" t="n">
-        <v>-0.09660335209078552</v>
+        <v>-9.620682548394655e-07</v>
       </c>
       <c r="D8" s="15" t="n">
-        <v>8.173136782918533e-06</v>
+        <v>0.07537032808536548</v>
       </c>
       <c r="E8" s="15" t="n">
-        <v>0.03450197664576327</v>
+        <v>-0.06067516458473743</v>
       </c>
       <c r="F8" s="15" t="n">
-        <v>0.02280341607877068</v>
+        <v>-1.679133194709692e-07</v>
       </c>
       <c r="G8" s="15" t="n">
-        <v>-0.01682109969562318</v>
+        <v>-2.149222627867431e-06</v>
       </c>
       <c r="H8" s="15" t="n">
-        <v>-0.04891105215545355</v>
+        <v>-1.62822022842235e-06</v>
       </c>
       <c r="I8" s="15" t="n">
-        <v>-0.06234403624744167</v>
+        <v>0.02236311304115102</v>
       </c>
       <c r="J8" s="15" t="n">
-        <v>-0.01873044089497578</v>
+        <v>0.02405544875659471</v>
       </c>
       <c r="K8" s="15" t="n">
-        <v>-0.09281651621625031</v>
+        <v>-0.09001393122782986</v>
       </c>
       <c r="L8" s="15" t="n">
-        <v>-0.08596608174028642</v>
+        <v>0.06970869778776501</v>
       </c>
       <c r="M8" s="15" t="n">
-        <v>-0.04302847744490201</v>
+        <v>-0.04867587688455866</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="15" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B9" s="15" t="n">
-        <v>4.435451614881458e-06</v>
+        <v>-0.009906520326440682</v>
       </c>
       <c r="C9" s="15" t="n">
-        <v>6.845655362130998e-06</v>
+        <v>0.0318557426483459</v>
       </c>
       <c r="D9" s="15" t="n">
-        <v>0.06469441937499942</v>
+        <v>0.04291606568309714</v>
       </c>
       <c r="E9" s="15" t="n">
-        <v>-0.10684694555297</v>
+        <v>-0.04056042348962685</v>
       </c>
       <c r="F9" s="15" t="n">
-        <v>9.242103535811452e-07</v>
+        <v>-7.400275086055785e-07</v>
       </c>
       <c r="G9" s="15" t="n">
-        <v>1.597191858504488e-05</v>
+        <v>-6.470511075828966e-07</v>
       </c>
       <c r="H9" s="15" t="n">
-        <v>1.341968545021111e-05</v>
+        <v>-0.06334809672031194</v>
       </c>
       <c r="I9" s="15" t="n">
-        <v>-0.01835435593403678</v>
+        <v>0.02920992453285387</v>
       </c>
       <c r="J9" s="15" t="n">
-        <v>-0.006736275338973141</v>
+        <v>-0.04254893208800126</v>
       </c>
       <c r="K9" s="15" t="n">
-        <v>-0.1524733220121529</v>
+        <v>-0.02245775628783087</v>
       </c>
       <c r="L9" s="15" t="n">
-        <v>0.04766947096963325</v>
+        <v>-1.393907902769165e-06</v>
       </c>
       <c r="M9" s="15" t="n">
-        <v>-0.0676268805633512</v>
+        <v>0.01637450458687351</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="15" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B10" s="15" t="n">
-        <v>-0.04999319410928149</v>
+        <v>0.1111209216372215</v>
       </c>
       <c r="C10" s="15" t="n">
-        <v>-0.03794125277394678</v>
+        <v>0.004280811429914211</v>
       </c>
       <c r="D10" s="15" t="n">
-        <v>0.04291606568309714</v>
+        <v>0.07009750317718355</v>
       </c>
       <c r="E10" s="15" t="n">
-        <v>-0.0694200002481461</v>
+        <v>0.132344057424101</v>
       </c>
       <c r="F10" s="15" t="n">
-        <v>1.416086906425029e-05</v>
+        <v>-0.003881944508574819</v>
       </c>
       <c r="G10" s="15" t="n">
-        <v>1.002581412001824e-05</v>
+        <v>-3.679582710414131e-06</v>
       </c>
       <c r="H10" s="15" t="n">
-        <v>-0.0723435882146739</v>
+        <v>2.222991006828323e-07</v>
       </c>
       <c r="I10" s="15" t="n">
-        <v>-0.01205154483897786</v>
+        <v/>
       </c>
       <c r="J10" s="15" t="n">
-        <v>-0.08950493126650338</v>
+        <v/>
       </c>
       <c r="K10" s="15" t="n">
-        <v>-0.08009377348047686</v>
+        <v/>
       </c>
       <c r="L10" s="15" t="n">
-        <v>2.135558274729554e-05</v>
+        <v/>
       </c>
       <c r="M10" s="15" t="n">
-        <v>-0.003608788722309741</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="15" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B11" s="15" t="n">
-        <v>0.1001097645985498</v>
-      </c>
-      <c r="C11" s="15" t="n">
-        <v>0.004280811429914433</v>
-      </c>
-      <c r="D11" s="15" t="n">
-        <v>0.07009750317718355</v>
-      </c>
-      <c r="E11" s="15" t="n">
-        <v>0.08801838999443823</v>
-      </c>
-      <c r="F11" s="15" t="n">
-        <v>-0.0135381035280242</v>
-      </c>
-      <c r="G11" s="15" t="n">
-        <v>1.998382344448046e-05</v>
-      </c>
-      <c r="H11" s="15" t="n">
-        <v>-9.208835975993424e-07</v>
-      </c>
-      <c r="I11" s="15" t="n">
-        <v/>
-      </c>
-      <c r="J11" s="15" t="n">
-        <v/>
-      </c>
-      <c r="K11" s="15" t="n">
-        <v/>
-      </c>
-      <c r="L11" s="15" t="n">
-        <v/>
-      </c>
-      <c r="M11" s="15" t="n">
         <v/>
       </c>
     </row>
